--- a/csv_results_LOW_2E_DD.xlsx
+++ b/csv_results_LOW_2E_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidde\Documents\Aerospace Engineering Bachelor Year 3\Design Synthesis Exercise\Bigger_is_Better\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ca05c72b348f169/Documenten/GitHub/Bigger_is_Better/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C5738F-5B82-4E0B-A61B-5D4C74BC58C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27976E8E-FD67-4F68-AF57-6F2017A386C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_LOW_2E_DD" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,22 +1207,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD2735"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB30" sqref="BB30"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="13" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" customWidth="1"/>
+    <col min="17" max="22" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.88671875" style="2"/>
-    <col min="26" max="42" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="53" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="68" width="0" hidden="1" customWidth="1"/>
-    <col min="71" max="80" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="8.88671875" customWidth="1"/>
+    <col min="29" max="40" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="41" max="42" width="8.88671875" customWidth="1"/>
+    <col min="44" max="52" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.88671875" customWidth="1"/>
+    <col min="56" max="67" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="8.88671875" customWidth="1"/>
+    <col min="71" max="79" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1475,247 +1482,247 @@
         <v>81</v>
       </c>
       <c r="B2">
-        <v>1461497.4530444399</v>
+        <v>1399374.2534326301</v>
       </c>
       <c r="C2">
-        <v>1502476.1453418799</v>
+        <v>1428054.61094989</v>
       </c>
       <c r="D2">
-        <v>1533926.36147152</v>
+        <v>1454802.3745120701</v>
       </c>
       <c r="E2">
-        <v>1526985.4217612301</v>
+        <v>1447506.4306635</v>
       </c>
       <c r="F2">
-        <v>1564546.7563954301</v>
+        <v>1490082.3038013701</v>
       </c>
       <c r="G2">
-        <v>1602524.54634351</v>
+        <v>1525903.1442883399</v>
       </c>
       <c r="H2">
-        <v>1608878.0739518099</v>
+        <v>1529932.2410857601</v>
       </c>
       <c r="I2">
-        <v>1656635.33961283</v>
+        <v>1574805.2748267699</v>
       </c>
       <c r="J2">
-        <v>1704856.0683232299</v>
+        <v>1620238.8306764199</v>
       </c>
       <c r="K2">
-        <v>1450733.2281800599</v>
+        <v>1389170.0210854199</v>
       </c>
       <c r="L2">
-        <v>1478634.4169680099</v>
+        <v>1415876.71460553</v>
       </c>
       <c r="M2">
-        <v>1517576.93591139</v>
+        <v>1441191.0394933401</v>
       </c>
       <c r="N2">
-        <v>1515133.4492585</v>
+        <v>1437626.3820230199</v>
       </c>
       <c r="O2">
-        <v>1551210.3920052601</v>
+        <v>1477915.4692011599</v>
       </c>
       <c r="P2">
-        <v>1587559.50226423</v>
+        <v>1512239.37612184</v>
       </c>
       <c r="Q2">
-        <v>1596124.76258129</v>
+        <v>1518330.1493025301</v>
       </c>
       <c r="R2">
-        <v>1642162.2103826101</v>
+        <v>1561598.7603007299</v>
       </c>
       <c r="S2">
-        <v>1688523.3219761599</v>
+        <v>1605289.6460593999</v>
       </c>
       <c r="T2">
-        <v>1444331.4788655301</v>
+        <v>1383258.3951536701</v>
       </c>
       <c r="U2">
-        <v>1468576.6650076299</v>
+        <v>1406428.67105936</v>
       </c>
       <c r="V2">
-        <v>1502307.2546460901</v>
+        <v>1428149.3334429399</v>
       </c>
       <c r="W2">
-        <v>1508144.4321678199</v>
+        <v>1431929.2808993501</v>
       </c>
       <c r="X2">
-        <v>1543834.97335843</v>
+        <v>1462051.07014519</v>
       </c>
       <c r="Y2" s="2">
-        <v>1579750.91303958</v>
+        <v>1505366.7271591299</v>
       </c>
       <c r="Z2">
-        <v>1583249.81782693</v>
+        <v>1506649.90379604</v>
       </c>
       <c r="AA2">
-        <v>1629041.68279676</v>
+        <v>1549697.8453804899</v>
       </c>
       <c r="AB2">
-        <v>1675029.16925554</v>
+        <v>1593047.3955653401</v>
       </c>
       <c r="AC2">
-        <v>1440307.94771596</v>
+        <v>1377686.39931996</v>
       </c>
       <c r="AD2">
-        <v>1463538.3588125501</v>
+        <v>1400110.79213898</v>
       </c>
       <c r="AE2">
-        <v>1496380.1987169201</v>
+        <v>1422220.79620873</v>
       </c>
       <c r="AF2">
-        <v>1486975.6209373199</v>
+        <v>1419505.8880950001</v>
       </c>
       <c r="AG2">
-        <v>1525884.30370456</v>
+        <v>1445646.2420699601</v>
       </c>
       <c r="AH2">
-        <v>1556337.25503805</v>
+        <v>1481326.3048507201</v>
       </c>
       <c r="AI2">
-        <v>1566917.1175879899</v>
+        <v>1489057.7263150299</v>
       </c>
       <c r="AJ2">
-        <v>1605518.11372179</v>
+        <v>1525272.6925425199</v>
       </c>
       <c r="AK2">
-        <v>1643884.39106211</v>
+        <v>1561342.61824103</v>
       </c>
       <c r="AL2">
-        <v>1434951.8537774601</v>
+        <v>1364913.7107931301</v>
       </c>
       <c r="AM2">
-        <v>1456421.41318128</v>
+        <v>1393560.62767727</v>
       </c>
       <c r="AN2">
-        <v>1476533.9361972699</v>
+        <v>1412846.3995270899</v>
       </c>
       <c r="AO2">
-        <v>1479506.87735023</v>
+        <v>1412875.27048525</v>
       </c>
       <c r="AP2">
-        <v>1517217.6887323</v>
+        <v>1438516.79057539</v>
       </c>
       <c r="AQ2">
-        <v>1546975.6451717</v>
+        <v>1463799.8892152801</v>
       </c>
       <c r="AR2">
-        <v>1557245.18567615</v>
+        <v>1471461.03676651</v>
       </c>
       <c r="AS2">
-        <v>1594897.1134850101</v>
+        <v>1515772.2285740401</v>
       </c>
       <c r="AT2">
-        <v>1632242.6890185301</v>
+        <v>1550890.6677997699</v>
       </c>
       <c r="AU2">
-        <v>1428907.6743735</v>
+        <v>1361363.8084681099</v>
       </c>
       <c r="AV2">
-        <v>1450264.3270399</v>
+        <v>1388204.8105576399</v>
       </c>
       <c r="AW2">
-        <v>1470289.2352775501</v>
+        <v>1407419.2177947799</v>
       </c>
       <c r="AX2">
-        <v>1474508.97771555</v>
+        <v>1408415.34642474</v>
       </c>
       <c r="AY2">
-        <v>1509903.7760379</v>
+        <v>1432551.2584997399</v>
       </c>
       <c r="AZ2">
-        <v>1539183.7179142099</v>
+        <v>1457499.77448443</v>
       </c>
       <c r="BA2">
-        <v>1542682.86553349</v>
+        <v>1459354.7974235599</v>
       </c>
       <c r="BB2">
-        <v>1579440.7028951601</v>
+        <v>1501721.65915225</v>
       </c>
       <c r="BC2">
-        <v>1615789.80589802</v>
+        <v>1535917.12369954</v>
       </c>
       <c r="BD2">
-        <v>1429852.8384891599</v>
+        <v>1360859.3285724299</v>
       </c>
       <c r="BE2">
-        <v>1449560.3253212899</v>
+        <v>1386034.35855639</v>
       </c>
       <c r="BF2">
-        <v>1467792.8463591901</v>
+        <v>1403506.50032088</v>
       </c>
       <c r="BG2">
-        <v>1469487.6238921599</v>
+        <v>1402180.39113749</v>
       </c>
       <c r="BH2">
-        <v>1493128.69777476</v>
+        <v>1424773.64761945</v>
       </c>
       <c r="BI2">
-        <v>1527841.42964614</v>
+        <v>1446909.7979434601</v>
       </c>
       <c r="BJ2">
-        <v>1540086.7007027799</v>
+        <v>1456113.18354446</v>
       </c>
       <c r="BK2">
-        <v>1572636.84784062</v>
+        <v>1493597.1198217699</v>
       </c>
       <c r="BL2">
-        <v>1604643.0667653801</v>
+        <v>1523647.73462577</v>
       </c>
       <c r="BM2">
-        <v>1424437.85681989</v>
+        <v>1358007.0591654701</v>
       </c>
       <c r="BN2">
-        <v>1443791.8518467001</v>
+        <v>1381043.3027336299</v>
       </c>
       <c r="BO2">
-        <v>1461950.2392587001</v>
+        <v>1398449.7594507199</v>
       </c>
       <c r="BP2">
-        <v>1464956.9240869901</v>
+        <v>1398201.1542068201</v>
       </c>
       <c r="BQ2">
-        <v>1487049.3861529401</v>
+        <v>1419514.2612475301</v>
       </c>
       <c r="BR2">
-        <v>1521095.43124216</v>
+        <v>1441451.4969009301</v>
       </c>
       <c r="BS2">
-        <v>1531794.62681234</v>
+        <v>1449276.02096843</v>
       </c>
       <c r="BT2">
-        <v>1564719.8093525299</v>
+        <v>1486662.26868157</v>
       </c>
       <c r="BU2">
-        <v>1596522.4949598601</v>
+        <v>1516515.33766756</v>
       </c>
       <c r="BV2">
-        <v>1418554.2788826299</v>
+        <v>1354511.9886111999</v>
       </c>
       <c r="BW2">
-        <v>1437817.5076865901</v>
+        <v>1375872.0002448</v>
       </c>
       <c r="BX2">
-        <v>1455898.7070822299</v>
+        <v>1393215.8143178199</v>
       </c>
       <c r="BY2">
-        <v>1461877.2094204701</v>
+        <v>1395846.99188901</v>
       </c>
       <c r="BZ2">
-        <v>1482680.70020111</v>
+        <v>1415720.4793042799</v>
       </c>
       <c r="CA2">
-        <v>1513526.27475806</v>
+        <v>1435076.66224185</v>
       </c>
       <c r="CB2">
-        <v>1519316.90032472</v>
+        <v>1438605.9138382699</v>
       </c>
       <c r="CC2">
-        <v>1547754.4274907899</v>
+        <v>1462676.9590778099</v>
       </c>
       <c r="CD2">
-        <v>1577445.9907007699</v>
+        <v>1499120.4682829899</v>
       </c>
     </row>
     <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,247 +1978,247 @@
         <v>83</v>
       </c>
       <c r="B4">
-        <v>129903.902781343</v>
+        <v>125123.14643695801</v>
       </c>
       <c r="C4">
-        <v>134918.72242749299</v>
+        <v>127474.527182698</v>
       </c>
       <c r="D4">
-        <v>137603.83349816201</v>
+        <v>129422.03265476</v>
       </c>
       <c r="E4">
-        <v>137115.76470433199</v>
+        <v>129011.09620638</v>
       </c>
       <c r="F4">
-        <v>140313.234428133</v>
+        <v>133750.760054774</v>
       </c>
       <c r="G4">
-        <v>143512.13890306401</v>
+        <v>136786.476860575</v>
       </c>
       <c r="H4">
-        <v>144169.21208154599</v>
+        <v>137201.352432079</v>
       </c>
       <c r="I4">
-        <v>148142.71979023001</v>
+        <v>140959.31156958299</v>
       </c>
       <c r="J4">
-        <v>152102.52066329299</v>
+        <v>144713.248753347</v>
       </c>
       <c r="K4">
-        <v>129215.931038764</v>
+        <v>124419.140866292</v>
       </c>
       <c r="L4">
-        <v>131430.71090185901</v>
+        <v>126561.249043373</v>
       </c>
       <c r="M4">
-        <v>136195.824983795</v>
+        <v>128420.824043655</v>
       </c>
       <c r="N4">
-        <v>136080.743868185</v>
+        <v>128267.953785224</v>
       </c>
       <c r="O4">
-        <v>139159.323421301</v>
+        <v>132697.974656957</v>
       </c>
       <c r="P4">
-        <v>142230.09664796901</v>
+        <v>135615.57556571101</v>
       </c>
       <c r="Q4">
-        <v>143068.376950084</v>
+        <v>136202.635458848</v>
       </c>
       <c r="R4">
-        <v>146908.426710614</v>
+        <v>139834.90664100999</v>
       </c>
       <c r="S4">
-        <v>150727.581677849</v>
+        <v>143457.88777014799</v>
       </c>
       <c r="T4">
-        <v>128722.803420603</v>
+        <v>123964.26040505301</v>
       </c>
       <c r="U4">
-        <v>130671.054057072</v>
+        <v>125846.605366358</v>
       </c>
       <c r="V4">
-        <v>134876.13353631101</v>
+        <v>127455.019064181</v>
       </c>
       <c r="W4">
-        <v>135463.46122652601</v>
+        <v>127832.645777693</v>
       </c>
       <c r="X4">
-        <v>138510.89460781199</v>
+        <v>130004.14153014</v>
       </c>
       <c r="Y4" s="2">
-        <v>141547.61417269701</v>
+        <v>135020.37615006501</v>
       </c>
       <c r="Z4">
-        <v>141954.75345865599</v>
+        <v>135193.441742166</v>
       </c>
       <c r="AA4">
-        <v>145784.750534108</v>
+        <v>138817.93069959601</v>
       </c>
       <c r="AB4">
-        <v>149581.55527209601</v>
+        <v>142422.942116661</v>
       </c>
       <c r="AC4">
-        <v>128438.730023485</v>
+        <v>123510.763399699</v>
       </c>
       <c r="AD4">
-        <v>130378.770500974</v>
+        <v>125404.589296654</v>
       </c>
       <c r="AE4">
-        <v>134404.53077627701</v>
+        <v>127063.462018666</v>
       </c>
       <c r="AF4">
-        <v>132274.499636769</v>
+        <v>126949.566685631</v>
       </c>
       <c r="AG4">
-        <v>137026.14093872899</v>
+        <v>128876.237694608</v>
       </c>
       <c r="AH4">
-        <v>139628.956478521</v>
+        <v>133012.326506802</v>
       </c>
       <c r="AI4">
-        <v>140638.23738782099</v>
+        <v>133737.090469997</v>
       </c>
       <c r="AJ4">
-        <v>143905.35649371101</v>
+        <v>136822.40199288799</v>
       </c>
       <c r="AK4">
-        <v>147117.47583108899</v>
+        <v>139864.87808848001</v>
       </c>
       <c r="AL4">
-        <v>128098.679096925</v>
+        <v>121519.376331907</v>
       </c>
       <c r="AM4">
-        <v>129826.809928232</v>
+        <v>124899.135476429</v>
       </c>
       <c r="AN4">
-        <v>131308.41442086</v>
+        <v>126352.201875368</v>
       </c>
       <c r="AO4">
-        <v>131699.850587347</v>
+        <v>126435.443055482</v>
       </c>
       <c r="AP4">
-        <v>136264.23919587801</v>
+        <v>128332.344563808</v>
       </c>
       <c r="AQ4">
-        <v>138811.204927791</v>
+        <v>130181.96338596899</v>
       </c>
       <c r="AR4">
-        <v>139789.585380504</v>
+        <v>130862.192492674</v>
       </c>
       <c r="AS4">
-        <v>142981.21185760401</v>
+        <v>135999.97238621599</v>
       </c>
       <c r="AT4">
-        <v>146113.791374561</v>
+        <v>138966.201629913</v>
       </c>
       <c r="AU4">
-        <v>127627.636048524</v>
+        <v>121519.376331907</v>
       </c>
       <c r="AV4">
-        <v>129346.743791845</v>
+        <v>124483.68891863</v>
       </c>
       <c r="AW4">
-        <v>130825.999042551</v>
+        <v>125935.77095704799</v>
       </c>
       <c r="AX4">
-        <v>131300.310744858</v>
+        <v>126086.222402753</v>
       </c>
       <c r="AY4">
-        <v>135616.85671962399</v>
+        <v>127873.57582029499</v>
       </c>
       <c r="AZ4">
-        <v>138125.33117642999</v>
+        <v>129703.545481633</v>
       </c>
       <c r="BA4">
-        <v>138520.35635523399</v>
+        <v>129953.920810529</v>
       </c>
       <c r="BB4">
-        <v>141645.60610359299</v>
+        <v>134787.095435828</v>
       </c>
       <c r="BC4">
-        <v>144705.89749190499</v>
+        <v>137685.15688264699</v>
       </c>
       <c r="BD4">
-        <v>127723.088779818</v>
+        <v>121519.376331907</v>
       </c>
       <c r="BE4">
-        <v>129355.656745274</v>
+        <v>124337.68473068</v>
       </c>
       <c r="BF4">
-        <v>130714.005321933</v>
+        <v>125671.124321991</v>
       </c>
       <c r="BG4">
-        <v>131006.514806276</v>
+        <v>125641.546718008</v>
       </c>
       <c r="BH4">
-        <v>132741.95077824499</v>
+        <v>127342.17663208699</v>
       </c>
       <c r="BI4">
-        <v>137202.111072937</v>
+        <v>128990.42595949399</v>
       </c>
       <c r="BJ4">
-        <v>138344.08457599301</v>
+        <v>129782.197285578</v>
       </c>
       <c r="BK4">
-        <v>141127.48146698801</v>
+        <v>134128.50312447001</v>
       </c>
       <c r="BL4">
-        <v>143843.93430589201</v>
+        <v>136695.38315443599</v>
       </c>
       <c r="BM4">
-        <v>127340.178843043</v>
+        <v>121519.376331907</v>
       </c>
       <c r="BN4">
-        <v>128901.287335492</v>
+        <v>123947.829298886</v>
       </c>
       <c r="BO4">
-        <v>130257.67669101201</v>
+        <v>125279.128106157</v>
       </c>
       <c r="BP4">
-        <v>130638.94948476199</v>
+        <v>125325.74094828</v>
       </c>
       <c r="BQ4">
-        <v>132261.71086617</v>
+        <v>126931.290108217</v>
       </c>
       <c r="BR4">
-        <v>136606.33109183601</v>
+        <v>128569.357358598</v>
       </c>
       <c r="BS4">
-        <v>137609.899005908</v>
+        <v>129253.539541101</v>
       </c>
       <c r="BT4">
-        <v>140429.52494283699</v>
+        <v>133519.23753684599</v>
       </c>
       <c r="BU4">
-        <v>143131.043031949</v>
+        <v>136071.76792165</v>
       </c>
       <c r="BV4">
-        <v>126875.60956220599</v>
+        <v>121519.376331907</v>
       </c>
       <c r="BW4">
-        <v>128430.77224352</v>
+        <v>123543.012040977</v>
       </c>
       <c r="BX4">
-        <v>129784.984699318</v>
+        <v>124873.326177225</v>
       </c>
       <c r="BY4">
-        <v>130380.913558481</v>
+        <v>125135.478865845</v>
       </c>
       <c r="BZ4">
-        <v>131907.70506159199</v>
+        <v>126631.333673139</v>
       </c>
       <c r="CA4">
-        <v>135937.95655068301</v>
+        <v>128079.46412353701</v>
       </c>
       <c r="CB4">
-        <v>136516.00987381101</v>
+        <v>128440.67280975101</v>
       </c>
       <c r="CC4">
-        <v>138959.50452548699</v>
+        <v>130196.92751587</v>
       </c>
       <c r="CD4">
-        <v>141489.139141158</v>
+        <v>134573.314172218</v>
       </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.3">
@@ -2219,247 +2226,247 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>859108.30501310201</v>
+        <v>801765.861745678</v>
       </c>
       <c r="C5">
-        <v>895072.17766438704</v>
+        <v>828094.83851719298</v>
       </c>
       <c r="D5">
-        <v>923837.28272335697</v>
+        <v>852895.09660731105</v>
       </c>
       <c r="E5">
-        <v>917384.41180690599</v>
+        <v>846010.08920712594</v>
       </c>
       <c r="F5">
-        <v>951748.27671729599</v>
+        <v>883846.29849660397</v>
       </c>
       <c r="G5">
-        <v>986527.16219044803</v>
+        <v>916631.42217776598</v>
       </c>
       <c r="H5">
-        <v>992223.61662026995</v>
+        <v>920245.64340368297</v>
       </c>
       <c r="I5">
-        <v>1036007.3745726</v>
+        <v>961360.71800719097</v>
       </c>
       <c r="J5">
-        <v>1080268.3024099399</v>
+        <v>1003040.33667307</v>
       </c>
       <c r="K5">
-        <v>849032.05189130001</v>
+        <v>792265.634969134</v>
       </c>
       <c r="L5">
-        <v>874718.46081615402</v>
+        <v>816830.22031215904</v>
       </c>
       <c r="M5">
-        <v>908895.86567759502</v>
+        <v>840284.97019969195</v>
       </c>
       <c r="N5">
-        <v>906567.46014032199</v>
+        <v>836873.18298779998</v>
       </c>
       <c r="O5">
-        <v>939565.82333395898</v>
+        <v>872732.24929420301</v>
       </c>
       <c r="P5">
-        <v>972844.16036625998</v>
+        <v>904138.55530613195</v>
       </c>
       <c r="Q5">
-        <v>980571.14038120501</v>
+        <v>909642.26859369001</v>
       </c>
       <c r="R5">
-        <v>1022768.538422</v>
+        <v>949278.60840972699</v>
       </c>
       <c r="S5">
-        <v>1065310.4950483099</v>
+        <v>989346.51303925295</v>
       </c>
       <c r="T5">
-        <v>843123.43019492901</v>
+        <v>786808.88949861994</v>
       </c>
       <c r="U5">
-        <v>865420.36570055794</v>
+        <v>808096.820443006</v>
       </c>
       <c r="V5">
-        <v>894945.87585978396</v>
+        <v>828209.06912876095</v>
       </c>
       <c r="W5">
-        <v>900195.72569129604</v>
+        <v>831611.38987166295</v>
       </c>
       <c r="X5">
-        <v>932838.83350061695</v>
+        <v>859561.68336505105</v>
       </c>
       <c r="Y5" s="2">
-        <v>965718.05361688498</v>
+        <v>897861.10575907095</v>
       </c>
       <c r="Z5">
-        <v>968809.81911828299</v>
+        <v>898971.21680387598</v>
       </c>
       <c r="AA5">
-        <v>1010771.68701265</v>
+        <v>938394.66943089897</v>
       </c>
       <c r="AB5">
-        <v>1052962.3687334401</v>
+        <v>978139.20819868299</v>
       </c>
       <c r="AC5">
-        <v>839383.97244247899</v>
+        <v>781690.39067025995</v>
       </c>
       <c r="AD5">
-        <v>860674.343061583</v>
+        <v>802220.95759233204</v>
       </c>
       <c r="AE5">
-        <v>889490.422690643</v>
+        <v>822672.08894007001</v>
       </c>
       <c r="AF5">
-        <v>882215.87605055596</v>
+        <v>820071.07615937002</v>
       </c>
       <c r="AG5">
-        <v>916372.91751583701</v>
+        <v>844284.75912535598</v>
       </c>
       <c r="AH5">
-        <v>944223.053309537</v>
+        <v>875828.73309392296</v>
       </c>
       <c r="AI5">
-        <v>953793.63495017798</v>
+        <v>882835.39059503796</v>
       </c>
       <c r="AJ5">
-        <v>989127.51197808795</v>
+        <v>915965.04529963795</v>
       </c>
       <c r="AK5">
-        <v>1024281.66998102</v>
+        <v>948992.49490255001</v>
       </c>
       <c r="AL5">
-        <v>834367.92943053902</v>
+        <v>770909.089211229</v>
       </c>
       <c r="AM5">
-        <v>854109.35800305195</v>
+        <v>796176.24695084395</v>
       </c>
       <c r="AN5">
-        <v>872740.27652641397</v>
+        <v>814008.95240172895</v>
       </c>
       <c r="AO5">
-        <v>875321.78151289001</v>
+        <v>813954.58217977104</v>
       </c>
       <c r="AP5">
-        <v>908468.20428642596</v>
+        <v>837699.20076158305</v>
       </c>
       <c r="AQ5">
-        <v>935679.19499390805</v>
+        <v>861132.68057931901</v>
       </c>
       <c r="AR5">
-        <v>944970.35504565202</v>
+        <v>868113.59902383899</v>
       </c>
       <c r="AS5">
-        <v>979430.65637740796</v>
+        <v>907287.01093783102</v>
       </c>
       <c r="AT5">
-        <v>1013643.6523939701</v>
+        <v>939439.22091985797</v>
       </c>
       <c r="AU5">
-        <v>828794.79307498306</v>
+        <v>767359.18688621197</v>
       </c>
       <c r="AV5">
-        <v>848432.33799806295</v>
+        <v>791235.87638901395</v>
       </c>
       <c r="AW5">
-        <v>866977.99098500202</v>
+        <v>808998.201587738</v>
       </c>
       <c r="AX5">
-        <v>870723.42172069696</v>
+        <v>809843.87877198798</v>
       </c>
       <c r="AY5">
-        <v>901801.67406828201</v>
+        <v>832192.43742944906</v>
       </c>
       <c r="AZ5">
-        <v>928573.14148777898</v>
+        <v>855310.98375280504</v>
       </c>
       <c r="BA5">
-        <v>931677.263928256</v>
+        <v>856915.63136303902</v>
       </c>
       <c r="BB5">
-        <v>965309.85154156701</v>
+        <v>894449.31846642296</v>
       </c>
       <c r="BC5">
-        <v>998598.66315611801</v>
+        <v>925746.72156689595</v>
       </c>
       <c r="BD5">
-        <v>829644.50445934397</v>
+        <v>766854.70699052606</v>
       </c>
       <c r="BE5">
-        <v>847719.42332602094</v>
+        <v>789211.42857571598</v>
       </c>
       <c r="BF5">
-        <v>864593.59578725905</v>
+        <v>805350.13074889604</v>
       </c>
       <c r="BG5">
-        <v>865995.86383588798</v>
+        <v>804053.59916948399</v>
       </c>
       <c r="BH5">
-        <v>887901.501746519</v>
+        <v>824946.22573736298</v>
       </c>
       <c r="BI5">
-        <v>918154.07332320197</v>
+        <v>845434.12673397199</v>
       </c>
       <c r="BJ5">
-        <v>929257.37087678595</v>
+        <v>853845.74100888602</v>
       </c>
       <c r="BK5">
-        <v>959024.12112363603</v>
+        <v>886983.37144730601</v>
       </c>
       <c r="BL5">
-        <v>988313.88720948901</v>
+        <v>914467.10622134001</v>
       </c>
       <c r="BM5">
-        <v>824612.43272685295</v>
+        <v>764002.43758356397</v>
       </c>
       <c r="BN5">
-        <v>842405.31926121295</v>
+        <v>784610.22818475298</v>
       </c>
       <c r="BO5">
-        <v>859207.31731769606</v>
+        <v>800685.38609456597</v>
       </c>
       <c r="BP5">
-        <v>861832.72935223195</v>
+        <v>800390.16800854402</v>
       </c>
       <c r="BQ5">
-        <v>882302.43003677099</v>
+        <v>820097.72588931595</v>
       </c>
       <c r="BR5">
-        <v>912003.854900331</v>
+        <v>840396.89429233596</v>
       </c>
       <c r="BS5">
-        <v>921699.48255643703</v>
+        <v>847537.23617733596</v>
       </c>
       <c r="BT5">
-        <v>951805.03915969504</v>
+        <v>880657.78589472699</v>
       </c>
       <c r="BU5">
-        <v>980906.20667791599</v>
+        <v>907958.32449591695</v>
       </c>
       <c r="BV5">
-        <v>819193.42407042696</v>
+        <v>760507.367029296</v>
       </c>
       <c r="BW5">
-        <v>836901.49019307201</v>
+        <v>779843.74295382295</v>
       </c>
       <c r="BX5">
-        <v>853628.47713291703</v>
+        <v>795857.24289059499</v>
       </c>
       <c r="BY5">
-        <v>859011.05061198899</v>
+        <v>798226.267773167</v>
       </c>
       <c r="BZ5">
-        <v>878287.74988952104</v>
+        <v>816603.90038114903</v>
       </c>
       <c r="CA5">
-        <v>905103.07295738196</v>
+        <v>834511.95286831504</v>
       </c>
       <c r="CB5">
-        <v>910315.64520091296</v>
+        <v>837679.99577852397</v>
       </c>
       <c r="CC5">
-        <v>936309.67771531199</v>
+        <v>859994.78631194599</v>
       </c>
       <c r="CD5">
-        <v>963471.60630961601</v>
+        <v>892061.90886077902</v>
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.3">
@@ -2467,247 +2474,247 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>111676.962458408</v>
+        <v>106469.681868573</v>
       </c>
       <c r="C6">
-        <v>137974.36235910299</v>
+        <v>128155.137756629</v>
       </c>
       <c r="D6">
-        <v>161350.87425390899</v>
+        <v>148955.17223023</v>
       </c>
       <c r="E6">
-        <v>130604.917788059</v>
+        <v>120699.105205941</v>
       </c>
       <c r="F6">
-        <v>158835.08946723101</v>
+        <v>149327.86393381399</v>
       </c>
       <c r="G6">
-        <v>187077.127849429</v>
+        <v>175823.50095448201</v>
       </c>
       <c r="H6">
-        <v>166225.21582662201</v>
+        <v>156074.54500397801</v>
       </c>
       <c r="I6">
-        <v>202345.63957497201</v>
+        <v>189876.97520555099</v>
       </c>
       <c r="J6">
-        <v>238414.509228454</v>
+        <v>223669.92424591599</v>
       </c>
       <c r="K6">
-        <v>107085.542777781</v>
+        <v>102019.230882291</v>
       </c>
       <c r="L6">
-        <v>128496.789839384</v>
+        <v>122413.870012459</v>
       </c>
       <c r="M6">
-        <v>153404.20594975501</v>
+        <v>142064.44866854799</v>
       </c>
       <c r="N6">
-        <v>126505.87158571099</v>
+        <v>117168.83191415999</v>
       </c>
       <c r="O6">
-        <v>153614.95086291901</v>
+        <v>144458.66228759001</v>
       </c>
       <c r="P6">
-        <v>180639.080727158</v>
+        <v>169842.25196095099</v>
       </c>
       <c r="Q6">
-        <v>161983.73994131401</v>
+        <v>152124.92279947101</v>
       </c>
       <c r="R6">
-        <v>196805.904899049</v>
+        <v>184725.64904344699</v>
       </c>
       <c r="S6">
-        <v>231485.82764612499</v>
+        <v>217222.89769452999</v>
       </c>
       <c r="T6">
-        <v>106477.714053125</v>
+        <v>101268.739091437</v>
       </c>
       <c r="U6">
-        <v>125043.71315034</v>
+        <v>118924.837208004</v>
       </c>
       <c r="V6">
-        <v>146407.47737474999</v>
+        <v>135750.577078937</v>
       </c>
       <c r="W6">
-        <v>126159.58943849499</v>
+        <v>117001.519718214</v>
       </c>
       <c r="X6">
-        <v>152984.415727035</v>
+        <v>140820.69274475001</v>
       </c>
       <c r="Y6" s="2">
-        <v>179703.41841167299</v>
+        <v>169023.05894859799</v>
       </c>
       <c r="Z6">
-        <v>157812.590699703</v>
+        <v>148258.020307167</v>
       </c>
       <c r="AA6">
-        <v>192430.59343126501</v>
+        <v>180671.73181815899</v>
       </c>
       <c r="AB6">
-        <v>226843.08910023299</v>
+        <v>212921.04123641699</v>
       </c>
       <c r="AC6">
-        <v>96324.160271426896</v>
+        <v>91439.604319073507</v>
       </c>
       <c r="AD6">
-        <v>113883.929998483</v>
+        <v>108311.06489309001</v>
       </c>
       <c r="AE6">
-        <v>134956.549505609</v>
+        <v>125406.633615716</v>
       </c>
       <c r="AF6">
-        <v>107495.13517776001</v>
+        <v>101956.73781406</v>
       </c>
       <c r="AG6">
-        <v>132728.30895687299</v>
+        <v>122534.363773611</v>
       </c>
       <c r="AH6">
-        <v>155388.491128319</v>
+        <v>145893.07141649199</v>
       </c>
       <c r="AI6">
-        <v>139438.43373648301</v>
+        <v>130725.120852343</v>
       </c>
       <c r="AJ6">
-        <v>168577.63907186501</v>
+        <v>157963.463766403</v>
       </c>
       <c r="AK6">
-        <v>197282.81959377599</v>
+        <v>184804.81167989399</v>
       </c>
       <c r="AL6">
-        <v>95985.043317570598</v>
+        <v>89484.172092070294</v>
       </c>
       <c r="AM6">
-        <v>112440.544546317</v>
+        <v>106790.940777386</v>
       </c>
       <c r="AN6">
-        <v>128091.180667198</v>
+        <v>121682.856990823</v>
       </c>
       <c r="AO6">
-        <v>106174.259939966</v>
+        <v>100747.852007038</v>
       </c>
       <c r="AP6">
-        <v>130763.408465634</v>
+        <v>120917.07750759801</v>
       </c>
       <c r="AQ6">
-        <v>152907.39593956701</v>
+        <v>140577.00553542699</v>
       </c>
       <c r="AR6">
-        <v>137164.933868238</v>
+        <v>125881.98547571299</v>
       </c>
       <c r="AS6">
-        <v>165585.11293335899</v>
+        <v>155215.04253336499</v>
       </c>
       <c r="AT6">
-        <v>193527.87191429501</v>
+        <v>181355.92613094699</v>
       </c>
       <c r="AU6">
-        <v>95515.795390829298</v>
+        <v>89484.172092070294</v>
       </c>
       <c r="AV6">
-        <v>111886.89989651099</v>
+        <v>106318.031855226</v>
       </c>
       <c r="AW6">
-        <v>127463.74884537001</v>
+        <v>121148.25688949099</v>
       </c>
       <c r="AX6">
-        <v>106957.315344109</v>
+        <v>101344.188513448</v>
       </c>
       <c r="AY6">
-        <v>129964.764047045</v>
+        <v>120337.789522479</v>
       </c>
       <c r="AZ6">
-        <v>151758.34623723201</v>
+        <v>139733.16534240899</v>
       </c>
       <c r="BA6">
-        <v>131417.66900870699</v>
+        <v>120928.979282303</v>
       </c>
       <c r="BB6">
-        <v>159142.17516422601</v>
+        <v>149228.83559386499</v>
       </c>
       <c r="BC6">
-        <v>186322.04004355599</v>
+        <v>174670.69246630499</v>
       </c>
       <c r="BD6">
-        <v>87900.563350287994</v>
+        <v>82273.061648166899</v>
       </c>
       <c r="BE6">
-        <v>102844.16520939799</v>
+        <v>97568.386877905301</v>
       </c>
       <c r="BF6">
-        <v>116991.154397355</v>
+        <v>111014.83019222099</v>
       </c>
       <c r="BG6">
-        <v>94378.869301271799</v>
+        <v>89424.554602877994</v>
       </c>
       <c r="BH6">
-        <v>113005.100998539</v>
+        <v>107092.568395172</v>
       </c>
       <c r="BI6">
-        <v>134697.69157670799</v>
+        <v>124237.25017941601</v>
       </c>
       <c r="BJ6">
-        <v>120956.027005538</v>
+        <v>111318.607897754</v>
       </c>
       <c r="BK6">
-        <v>145490.58538783301</v>
+        <v>136213.756911631</v>
       </c>
       <c r="BL6">
-        <v>169418.58178748301</v>
+        <v>158572.63922598801</v>
       </c>
       <c r="BM6">
-        <v>87550.506308320502</v>
+        <v>82273.061648166899</v>
       </c>
       <c r="BN6">
-        <v>102363.55850973399</v>
+        <v>97161.468384085107</v>
       </c>
       <c r="BO6">
-        <v>116447.08699579599</v>
+        <v>110553.63308922399</v>
       </c>
       <c r="BP6">
-        <v>95255.802525650404</v>
+        <v>90141.609525102103</v>
       </c>
       <c r="BQ6">
-        <v>112666.68268748</v>
+        <v>106813.213116007</v>
       </c>
       <c r="BR6">
-        <v>134036.62731662701</v>
+        <v>123796.84792851</v>
       </c>
       <c r="BS6">
-        <v>119535.150287704</v>
+        <v>110166.055045134</v>
       </c>
       <c r="BT6">
-        <v>144347.07725772599</v>
+        <v>135201.51560277701</v>
       </c>
       <c r="BU6">
-        <v>168127.87025188201</v>
+        <v>157417.801000798</v>
       </c>
       <c r="BV6">
-        <v>87126.270917876303</v>
+        <v>82273.061648166899</v>
       </c>
       <c r="BW6">
-        <v>101866.476883414</v>
+        <v>96739.390339842706</v>
       </c>
       <c r="BX6">
-        <v>115884.191863941</v>
+        <v>110076.708409631</v>
       </c>
       <c r="BY6">
-        <v>97414.504694568299</v>
+        <v>92240.586447594396</v>
       </c>
       <c r="BZ6">
-        <v>113820.021586146</v>
+        <v>107799.78975156099</v>
       </c>
       <c r="CA6">
-        <v>132917.94131905201</v>
+        <v>122775.218207959</v>
       </c>
       <c r="CB6">
-        <v>115157.809883322</v>
+        <v>106175.43617576901</v>
       </c>
       <c r="CC6">
-        <v>136595.49922272499</v>
+        <v>125227.302323386</v>
       </c>
       <c r="CD6">
-        <v>158779.78581964099</v>
+        <v>148743.09830092901</v>
       </c>
     </row>
     <row r="7" spans="1:82" x14ac:dyDescent="0.3">
@@ -2715,247 +2722,247 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>23262.519523338</v>
+        <v>23860.514109589501</v>
       </c>
       <c r="C7">
-        <v>24224.126929251001</v>
+        <v>23894.136768119901</v>
       </c>
       <c r="D7">
-        <v>24853.528478226399</v>
+        <v>24296.810049108899</v>
       </c>
       <c r="E7">
-        <v>30350.7350616937</v>
+        <v>29702.040610149299</v>
       </c>
       <c r="F7">
-        <v>30720.419587609798</v>
+        <v>30887.2986403424</v>
       </c>
       <c r="G7">
-        <v>31679.867428242502</v>
+        <v>31841.662665351199</v>
       </c>
       <c r="H7">
-        <v>39700.795237018901</v>
+        <v>39859.927875413399</v>
       </c>
       <c r="I7">
-        <v>40358.411489529099</v>
+        <v>40495.924100073302</v>
       </c>
       <c r="J7">
-        <v>41803.631542994401</v>
+        <v>41933.7159510458</v>
       </c>
       <c r="K7">
-        <v>22371.491866621702</v>
+        <v>22931.096368271799</v>
       </c>
       <c r="L7">
-        <v>22373.814191573001</v>
+        <v>22915.291132248702</v>
       </c>
       <c r="M7">
-        <v>23698.4515770127</v>
+        <v>23280.186087429</v>
       </c>
       <c r="N7">
-        <v>29080.345156998599</v>
+        <v>28559.832288114099</v>
       </c>
       <c r="O7">
-        <v>29398.224470324301</v>
+        <v>29572.343255130301</v>
       </c>
       <c r="P7">
-        <v>30276.428258778</v>
+        <v>30446.765457551901</v>
       </c>
       <c r="Q7">
-        <v>38027.083163479998</v>
+        <v>38197.265449389699</v>
       </c>
       <c r="R7">
-        <v>38607.358484284901</v>
+        <v>38756.655131722197</v>
       </c>
       <c r="S7">
-        <v>39936.465732432604</v>
+        <v>40079.549405906699</v>
       </c>
       <c r="T7">
-        <v>21553.435036827501</v>
+        <v>22095.452542349401</v>
       </c>
       <c r="U7">
-        <v>21481.963195358399</v>
+        <v>22004.009730387599</v>
       </c>
       <c r="V7">
-        <v>22583.3517733974</v>
+        <v>22278.435699527101</v>
       </c>
       <c r="W7">
-        <v>27977.1250923261</v>
+        <v>27537.208691571399</v>
       </c>
       <c r="X7">
-        <v>28276.978406722999</v>
+        <v>27535.7330592611</v>
       </c>
       <c r="Y7" s="2">
-        <v>29114.2630899619</v>
+        <v>29296.239355103498</v>
       </c>
       <c r="Z7">
-        <v>36355.477470481499</v>
+        <v>36536.287692703903</v>
       </c>
       <c r="AA7">
-        <v>36921.450690273799</v>
+        <v>37082.899224737303</v>
       </c>
       <c r="AB7">
-        <v>38196.218345024798</v>
+        <v>38353.323620437899</v>
       </c>
       <c r="AC7">
-        <v>17016.091970061399</v>
+        <v>17369.563868059598</v>
       </c>
       <c r="AD7">
-        <v>16973.483484347798</v>
+        <v>17324.028521157001</v>
       </c>
       <c r="AE7">
-        <v>17794.2998516478</v>
+        <v>17561.703178186101</v>
       </c>
       <c r="AF7">
-        <v>21111.240704490199</v>
+        <v>21482.833994824101</v>
       </c>
       <c r="AG7">
-        <v>21929.011124296201</v>
+        <v>21438.256996907901</v>
       </c>
       <c r="AH7">
-        <v>22470.8736488457</v>
+        <v>22525.849102519802</v>
       </c>
       <c r="AI7">
-        <v>28172.387062731501</v>
+        <v>28187.782766698401</v>
       </c>
       <c r="AJ7">
-        <v>28433.024179887001</v>
+        <v>28432.8412749733</v>
       </c>
       <c r="AK7">
-        <v>29223.805480745399</v>
+        <v>29214.926898655202</v>
       </c>
       <c r="AL7">
-        <v>16454.621991681099</v>
+        <v>16682.099854046999</v>
       </c>
       <c r="AM7">
-        <v>16371.619782317801</v>
+        <v>16714.2196751027</v>
       </c>
       <c r="AN7">
-        <v>16546.527691372699</v>
+        <v>16895.773914338701</v>
       </c>
       <c r="AO7">
-        <v>20360.751920248698</v>
+        <v>20727.927577483901</v>
       </c>
       <c r="AP7">
-        <v>21098.677481809998</v>
+        <v>20679.391599643001</v>
       </c>
       <c r="AQ7">
-        <v>21608.3299822064</v>
+        <v>21005.339138077499</v>
       </c>
       <c r="AR7">
-        <v>27077.763814055299</v>
+        <v>26229.3915315796</v>
       </c>
       <c r="AS7">
-        <v>27309.2319292264</v>
+        <v>27326.396191740801</v>
       </c>
       <c r="AT7">
-        <v>28048.075701149799</v>
+        <v>28056.5272097054</v>
       </c>
       <c r="AU7">
-        <v>15860.3314323461</v>
+        <v>16171.5931274715</v>
       </c>
       <c r="AV7">
-        <v>15780.4008526282</v>
+        <v>16119.957505091201</v>
       </c>
       <c r="AW7">
-        <v>15949.9249774828</v>
+        <v>16296.173311635101</v>
       </c>
       <c r="AX7">
-        <v>19652.261849459501</v>
+        <v>20014.2869969723</v>
       </c>
       <c r="AY7">
-        <v>20297.198191832002</v>
+        <v>19938.307542823801</v>
       </c>
       <c r="AZ7">
-        <v>20780.300745972701</v>
+        <v>20249.1815349924</v>
       </c>
       <c r="BA7">
-        <v>25835.3468627601</v>
+        <v>25132.460265206999</v>
       </c>
       <c r="BB7">
-        <v>26044.771511953699</v>
+        <v>26077.510275005399</v>
       </c>
       <c r="BC7">
-        <v>26735.1581708626</v>
+        <v>26759.834082494199</v>
       </c>
       <c r="BD7">
-        <v>13112.9321047952</v>
+        <v>13373.760917216799</v>
       </c>
       <c r="BE7">
-        <v>13036.9226624356</v>
+        <v>13276.8826020492</v>
       </c>
       <c r="BF7">
-        <v>13158.8864620081</v>
+        <v>13403.8326055827</v>
       </c>
       <c r="BG7">
-        <v>16148.707152054199</v>
+        <v>16391.988594812301</v>
       </c>
       <c r="BH7">
-        <v>16073.3875746128</v>
+        <v>16319.2183271417</v>
       </c>
       <c r="BI7">
-        <v>16936.3895023441</v>
+        <v>16538.799644403</v>
       </c>
       <c r="BJ7">
-        <v>21207.4153302226</v>
+        <v>20627.132704923501</v>
       </c>
       <c r="BK7">
-        <v>21300.8972200315</v>
+        <v>21259.2289280757</v>
       </c>
       <c r="BL7">
-        <v>21783.252992277499</v>
+        <v>21733.496661073801</v>
       </c>
       <c r="BM7">
-        <v>12675.0029765974</v>
+        <v>12908.35463435</v>
       </c>
       <c r="BN7">
-        <v>12591.6800696764</v>
+        <v>12831.227861065599</v>
       </c>
       <c r="BO7">
-        <v>12710.130902282401</v>
+        <v>12954.4832569715</v>
       </c>
       <c r="BP7">
-        <v>15619.735575069501</v>
+        <v>15862.093191666299</v>
       </c>
       <c r="BQ7">
-        <v>15524.3092852717</v>
+        <v>15771.5607499215</v>
       </c>
       <c r="BR7">
-        <v>16334.062271204</v>
+        <v>15982.872366268901</v>
       </c>
       <c r="BS7">
-        <v>20415.698685063599</v>
+        <v>19905.836789956102</v>
       </c>
       <c r="BT7">
-        <v>20521.397724635899</v>
+        <v>20494.745147156002</v>
       </c>
       <c r="BU7">
-        <v>20985.784536765299</v>
+        <v>20951.279103787001</v>
       </c>
       <c r="BV7">
-        <v>12218.632787475301</v>
+        <v>12518.8497405978</v>
       </c>
       <c r="BW7">
-        <v>12138.5776450346</v>
+        <v>12377.184121489599</v>
       </c>
       <c r="BX7">
-        <v>12253.401977837</v>
+        <v>12496.836622909201</v>
       </c>
       <c r="BY7">
-        <v>15106.107240458899</v>
+        <v>15351.885481740699</v>
       </c>
       <c r="BZ7">
-        <v>14994.993036002301</v>
+        <v>15241.1704203394</v>
       </c>
       <c r="CA7">
-        <v>15711.7468736553</v>
+        <v>15405.2733970479</v>
       </c>
       <c r="CB7">
-        <v>19526.807675083899</v>
+        <v>19101.454755512699</v>
       </c>
       <c r="CC7">
-        <v>19538.432498304799</v>
+        <v>18960.765450776398</v>
       </c>
       <c r="CD7">
-        <v>19943.883528551301</v>
+        <v>19925.737074688899</v>
       </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.3">
@@ -2963,247 +2970,247 @@
         <v>87</v>
       </c>
       <c r="B8">
-        <v>261440.85057133899</v>
+        <v>221949.748808918</v>
       </c>
       <c r="C8">
-        <v>261591.153358112</v>
+        <v>222480.40251969799</v>
       </c>
       <c r="D8">
-        <v>261786.85506988299</v>
+        <v>222710.65374601801</v>
       </c>
       <c r="E8">
-        <v>281422.690204371</v>
+        <v>239397.79875569601</v>
       </c>
       <c r="F8">
-        <v>281777.22682071303</v>
+        <v>239315.62300693599</v>
       </c>
       <c r="G8">
-        <v>281975.25823677197</v>
+        <v>239485.97977877999</v>
       </c>
       <c r="H8">
-        <v>299430.66722572799</v>
+        <v>254154.76471523099</v>
       </c>
       <c r="I8">
-        <v>299803.153268366</v>
+        <v>254483.38176988601</v>
       </c>
       <c r="J8">
-        <v>299983.143546729</v>
+        <v>254634.01934628599</v>
       </c>
       <c r="K8">
-        <v>258119.02567908599</v>
+        <v>219138.185929217</v>
       </c>
       <c r="L8">
-        <v>258578.13328720699</v>
+        <v>219599.263978181</v>
       </c>
       <c r="M8">
-        <v>258419.38504284999</v>
+        <v>219816.598694949</v>
       </c>
       <c r="N8">
-        <v>277829.33773588302</v>
+        <v>236310.60808514801</v>
       </c>
       <c r="O8">
-        <v>278182.67832246202</v>
+        <v>236279.21353981501</v>
       </c>
       <c r="P8">
-        <v>278384.45367732499</v>
+        <v>236453.885939915</v>
       </c>
       <c r="Q8">
-        <v>295649.07684578199</v>
+        <v>250965.43452863899</v>
       </c>
       <c r="R8">
-        <v>296022.42248162301</v>
+        <v>251295.37653466201</v>
       </c>
       <c r="S8">
-        <v>296209.91699763603</v>
+        <v>251453.39101472701</v>
       </c>
       <c r="T8">
-        <v>254564.54561794101</v>
+        <v>216136.15512391899</v>
       </c>
       <c r="U8">
-        <v>255004.27410023101</v>
+        <v>216578.61853073299</v>
       </c>
       <c r="V8">
-        <v>254896.94677897799</v>
+        <v>216795.27956106301</v>
       </c>
       <c r="W8">
-        <v>274045.10172903899</v>
+        <v>233077.24047089499</v>
       </c>
       <c r="X8">
-        <v>274393.50423404598</v>
+        <v>233460.04791365101</v>
       </c>
       <c r="Y8" s="2">
-        <v>274594.79243130703</v>
+        <v>233247.67694048199</v>
       </c>
       <c r="Z8">
-        <v>291695.21520341601</v>
+        <v>247629.54381095999</v>
       </c>
       <c r="AA8">
-        <v>292058.54554501199</v>
+        <v>247950.43134163501</v>
       </c>
       <c r="AB8">
-        <v>292244.22882143699</v>
+        <v>248106.87565574699</v>
       </c>
       <c r="AC8">
-        <v>263042.08797187702</v>
+        <v>223507.44490083499</v>
       </c>
       <c r="AD8">
-        <v>263423.648138416</v>
+        <v>223868.36710627101</v>
       </c>
       <c r="AE8">
-        <v>263389.56658049201</v>
+        <v>224066.75299379701</v>
       </c>
       <c r="AF8">
-        <v>283930.20651325397</v>
+        <v>241206.85216553099</v>
       </c>
       <c r="AG8">
-        <v>283859.59272896202</v>
+        <v>241508.62659225499</v>
       </c>
       <c r="AH8">
-        <v>284043.72073018597</v>
+        <v>241439.46215222601</v>
       </c>
       <c r="AI8">
-        <v>302167.11081662797</v>
+        <v>256725.39584631001</v>
       </c>
       <c r="AJ8">
-        <v>302537.933466107</v>
+        <v>257054.07317710001</v>
       </c>
       <c r="AK8">
-        <v>302757.36557748797</v>
+        <v>257244.846815103</v>
       </c>
       <c r="AL8">
-        <v>259613.061950968</v>
+        <v>218954.82274797201</v>
       </c>
       <c r="AM8">
-        <v>259955.060396299</v>
+        <v>220930.76812540801</v>
       </c>
       <c r="AN8">
-        <v>260171.47775423899</v>
+        <v>221126.273153919</v>
       </c>
       <c r="AO8">
-        <v>280204.36342532397</v>
+        <v>238053.372742479</v>
       </c>
       <c r="AP8">
-        <v>280160.62470568198</v>
+        <v>238347.646964788</v>
       </c>
       <c r="AQ8">
-        <v>280344.471972731</v>
+        <v>238562.85149264499</v>
       </c>
       <c r="AR8">
-        <v>298272.41667596501</v>
+        <v>253867.20171483001</v>
       </c>
       <c r="AS8">
-        <v>298639.383587902</v>
+        <v>253754.16539486</v>
       </c>
       <c r="AT8">
-        <v>298859.46375552402</v>
+        <v>253946.04220666501</v>
       </c>
       <c r="AU8">
-        <v>256005.54788048301</v>
+        <v>215998.35086842699</v>
       </c>
       <c r="AV8">
-        <v>256338.59259932101</v>
+        <v>217866.66078106899</v>
       </c>
       <c r="AW8">
-        <v>256551.26822570301</v>
+        <v>218059.01595939399</v>
       </c>
       <c r="AX8">
-        <v>276314.29684682097</v>
+        <v>234760.08253528</v>
       </c>
       <c r="AY8">
-        <v>276296.88231764501</v>
+        <v>235049.867607736</v>
       </c>
       <c r="AZ8">
-        <v>276479.920373309</v>
+        <v>235261.722212433</v>
       </c>
       <c r="BA8">
-        <v>294231.30049274297</v>
+        <v>250388.54575270999</v>
       </c>
       <c r="BB8">
-        <v>294590.75200421503</v>
+        <v>250330.038685373</v>
       </c>
       <c r="BC8">
-        <v>294809.94192713703</v>
+        <v>250520.84123446301</v>
       </c>
       <c r="BD8">
-        <v>264104.33854362799</v>
+        <v>222695.046121789</v>
       </c>
       <c r="BE8">
-        <v>264413.72595975199</v>
+        <v>224820.49597118999</v>
       </c>
       <c r="BF8">
-        <v>264612.07963632699</v>
+        <v>224999.87563431801</v>
       </c>
       <c r="BG8">
-        <v>285135.66748689301</v>
+        <v>242368.17720860199</v>
       </c>
       <c r="BH8">
-        <v>285430.09284393198</v>
+        <v>242635.823176545</v>
       </c>
       <c r="BI8">
-        <v>285362.46108402498</v>
+        <v>242834.74577583399</v>
       </c>
       <c r="BJ8">
-        <v>303978.86667588103</v>
+        <v>258703.56330669901</v>
       </c>
       <c r="BK8">
-        <v>304294.59189201699</v>
+        <v>258701.598719981</v>
       </c>
       <c r="BL8">
-        <v>304490.29479222803</v>
+        <v>258872.695102939</v>
       </c>
       <c r="BM8">
-        <v>260629.90823356999</v>
+        <v>220402.37978948699</v>
       </c>
       <c r="BN8">
-        <v>260919.000514385</v>
+        <v>221856.90489758301</v>
       </c>
       <c r="BO8">
-        <v>261114.189588223</v>
+        <v>222033.27544378399</v>
       </c>
       <c r="BP8">
-        <v>281373.89735065098</v>
+        <v>239179.65723250201</v>
       </c>
       <c r="BQ8">
-        <v>281662.89273979899</v>
+        <v>239442.65464118501</v>
       </c>
       <c r="BR8">
-        <v>281615.29236306099</v>
+        <v>239638.56069911001</v>
       </c>
       <c r="BS8">
-        <v>300019.40542668302</v>
+        <v>255309.85552139801</v>
       </c>
       <c r="BT8">
-        <v>300317.752078505</v>
+        <v>255328.71043106701</v>
       </c>
       <c r="BU8">
-        <v>300511.75662640901</v>
+        <v>255498.37847533001</v>
       </c>
       <c r="BV8">
-        <v>256993.36789802599</v>
+        <v>217379.737847868</v>
       </c>
       <c r="BW8">
-        <v>257275.849071253</v>
+        <v>218766.88918301801</v>
       </c>
       <c r="BX8">
-        <v>257467.73435629401</v>
+        <v>218940.42537006299</v>
       </c>
       <c r="BY8">
-        <v>277452.35085724498</v>
+        <v>235854.97605259001</v>
       </c>
       <c r="BZ8">
-        <v>277735.959816724</v>
+        <v>236113.295366987</v>
       </c>
       <c r="CA8">
-        <v>277708.109367144</v>
+        <v>236305.836452813</v>
       </c>
       <c r="CB8">
-        <v>295895.70094741398</v>
+        <v>251773.49004082399</v>
       </c>
       <c r="CC8">
-        <v>296190.48696323403</v>
+        <v>252067.13987532599</v>
       </c>
       <c r="CD8">
-        <v>296385.52835896699</v>
+        <v>252002.105172952</v>
       </c>
     </row>
     <row r="9" spans="1:82" x14ac:dyDescent="0.3">
@@ -3211,247 +3218,247 @@
         <v>88</v>
       </c>
       <c r="B9">
-        <v>21723.322352649899</v>
+        <v>20923.855139310199</v>
       </c>
       <c r="C9">
-        <v>22561.931057863902</v>
+        <v>21317.067358649801</v>
       </c>
       <c r="D9">
-        <v>23010.9516961353</v>
+        <v>21642.741093213201</v>
       </c>
       <c r="E9">
-        <v>22929.333857782301</v>
+        <v>21574.021795767199</v>
       </c>
       <c r="F9">
-        <v>23464.034232719299</v>
+        <v>22366.617271479499</v>
       </c>
       <c r="G9">
-        <v>23998.974535484602</v>
+        <v>22874.268337627698</v>
       </c>
       <c r="H9">
-        <v>24108.8543170757</v>
+        <v>22943.646359250401</v>
       </c>
       <c r="I9">
-        <v>24773.328493588899</v>
+        <v>23572.0751899799</v>
       </c>
       <c r="J9">
-        <v>25435.51052951</v>
+        <v>24199.831445092299</v>
       </c>
       <c r="K9">
-        <v>21608.275524852001</v>
+        <v>20806.127037057799</v>
       </c>
       <c r="L9">
-        <v>21978.644512049799</v>
+        <v>21164.343422005801</v>
       </c>
       <c r="M9">
-        <v>22775.4959309275</v>
+        <v>21475.312887165299</v>
       </c>
       <c r="N9">
-        <v>22756.251365386499</v>
+        <v>21449.748990847202</v>
       </c>
       <c r="O9">
-        <v>23271.070201377701</v>
+        <v>22190.564080811098</v>
       </c>
       <c r="P9">
-        <v>23784.583615882901</v>
+        <v>22678.463086770302</v>
       </c>
       <c r="Q9">
-        <v>23924.765957096901</v>
+        <v>22776.634820073799</v>
       </c>
       <c r="R9">
-        <v>24566.922482129299</v>
+        <v>23384.0453448765</v>
       </c>
       <c r="S9">
-        <v>25205.584852478602</v>
+        <v>23989.902330392299</v>
       </c>
       <c r="T9">
-        <v>21525.811719062101</v>
+        <v>20730.0591539546</v>
       </c>
       <c r="U9">
-        <v>21851.6100645593</v>
+        <v>21044.836350773301</v>
       </c>
       <c r="V9">
-        <v>22554.809083912602</v>
+        <v>21313.8050921746</v>
       </c>
       <c r="W9">
-        <v>22653.0255998756</v>
+        <v>21376.954132742001</v>
       </c>
       <c r="X9">
-        <v>23162.635983185901</v>
+        <v>21740.084887152101</v>
       </c>
       <c r="Y9" s="2">
-        <v>23670.4547368198</v>
+        <v>22578.930212904699</v>
       </c>
       <c r="Z9">
-        <v>23738.539049622901</v>
+        <v>22607.871296004301</v>
       </c>
       <c r="AA9">
-        <v>24379.014503388102</v>
+        <v>23213.980429756801</v>
       </c>
       <c r="AB9">
-        <v>25013.939332184102</v>
+        <v>23816.832410499101</v>
       </c>
       <c r="AC9">
-        <v>24279.825569146102</v>
+        <v>23348.2516582688</v>
       </c>
       <c r="AD9">
-        <v>24646.5673173861</v>
+        <v>23706.2570856659</v>
       </c>
       <c r="AE9">
-        <v>25407.589769489699</v>
+        <v>24019.8473891865</v>
       </c>
       <c r="AF9">
-        <v>25004.932529616301</v>
+        <v>23998.316821119399</v>
       </c>
       <c r="AG9">
-        <v>25903.174220091201</v>
+        <v>24362.5312291763</v>
       </c>
       <c r="AH9">
-        <v>26395.205769167202</v>
+        <v>25144.409988645501</v>
       </c>
       <c r="AI9">
-        <v>26585.998409545798</v>
+        <v>25281.4180593573</v>
       </c>
       <c r="AJ9">
-        <v>27203.6087050551</v>
+        <v>25864.659777712499</v>
       </c>
       <c r="AK9">
-        <v>27810.821943651899</v>
+        <v>26439.803964250201</v>
       </c>
       <c r="AL9">
-        <v>24215.542956105699</v>
+        <v>22971.803443327699</v>
       </c>
       <c r="AM9">
-        <v>24542.225687530499</v>
+        <v>23610.707008317098</v>
       </c>
       <c r="AN9">
-        <v>24822.305525106702</v>
+        <v>23885.392056200999</v>
       </c>
       <c r="AO9">
-        <v>24896.301911103499</v>
+        <v>23901.1278185599</v>
       </c>
       <c r="AP9">
-        <v>25759.1456905823</v>
+        <v>24259.7146539762</v>
       </c>
       <c r="AQ9">
-        <v>26240.619492839101</v>
+        <v>24609.363255789998</v>
       </c>
       <c r="AR9">
-        <v>26425.570766709501</v>
+        <v>24737.952537658799</v>
       </c>
       <c r="AS9">
-        <v>27028.910072008501</v>
+        <v>25709.189170137699</v>
       </c>
       <c r="AT9">
-        <v>27621.087246598301</v>
+        <v>26269.919789491301</v>
       </c>
       <c r="AU9">
-        <v>24126.497828918298</v>
+        <v>22971.803443327699</v>
       </c>
       <c r="AV9">
-        <v>24451.474852085499</v>
+        <v>23532.171741308299</v>
       </c>
       <c r="AW9">
-        <v>24731.110593211299</v>
+        <v>23806.670707456899</v>
       </c>
       <c r="AX9">
-        <v>24820.773620830099</v>
+        <v>23835.111777044502</v>
       </c>
       <c r="AY9">
-        <v>25636.765676414499</v>
+        <v>24172.989839217898</v>
       </c>
       <c r="AZ9">
-        <v>26110.963157538601</v>
+        <v>24518.923999155399</v>
       </c>
       <c r="BA9">
-        <v>26185.6380039422</v>
+        <v>24566.254499163399</v>
       </c>
       <c r="BB9">
-        <v>26776.4295723135</v>
+        <v>25479.909101836802</v>
       </c>
       <c r="BC9">
-        <v>27354.941529613199</v>
+        <v>26027.7534039766</v>
       </c>
       <c r="BD9">
-        <v>26930.450737881099</v>
+        <v>25622.396148327101</v>
       </c>
       <c r="BE9">
-        <v>27274.678172325101</v>
+        <v>26216.6373009831</v>
       </c>
       <c r="BF9">
-        <v>27561.0863681968</v>
+        <v>26497.793429986999</v>
       </c>
       <c r="BG9">
-        <v>27622.762078780801</v>
+        <v>26491.5569835102</v>
       </c>
       <c r="BH9">
-        <v>27988.679262575301</v>
+        <v>26850.1352997881</v>
       </c>
       <c r="BI9">
-        <v>28929.105369137102</v>
+        <v>27197.669153999799</v>
       </c>
       <c r="BJ9">
-        <v>29169.8908172642</v>
+        <v>27364.614370377501</v>
       </c>
       <c r="BK9">
-        <v>29756.770868263699</v>
+        <v>28281.0342315337</v>
       </c>
       <c r="BL9">
-        <v>30329.535746241101</v>
+        <v>28822.261638868102</v>
       </c>
       <c r="BM9">
-        <v>26849.714065382199</v>
+        <v>25622.396148327101</v>
       </c>
       <c r="BN9">
-        <v>27178.8742489795</v>
+        <v>26134.436168821801</v>
       </c>
       <c r="BO9">
-        <v>27464.8693424991</v>
+        <v>26415.1409128829</v>
       </c>
       <c r="BP9">
-        <v>27545.260822910899</v>
+        <v>26424.9692443188</v>
       </c>
       <c r="BQ9">
-        <v>27887.420536231901</v>
+        <v>26763.499755692999</v>
       </c>
       <c r="BR9">
-        <v>28803.484985344701</v>
+        <v>27108.886715976801</v>
       </c>
       <c r="BS9">
-        <v>29015.087574432</v>
+        <v>27253.1467298682</v>
       </c>
       <c r="BT9">
-        <v>29609.606530394802</v>
+        <v>28152.570403649901</v>
       </c>
       <c r="BU9">
-        <v>30179.222411997602</v>
+        <v>28690.772184092399</v>
       </c>
       <c r="BV9">
-        <v>26751.759496232298</v>
+        <v>25622.396148327101</v>
       </c>
       <c r="BW9">
-        <v>27079.666003807499</v>
+        <v>26049.0803312352</v>
       </c>
       <c r="BX9">
-        <v>27365.2020973822</v>
+        <v>26329.577457121999</v>
       </c>
       <c r="BY9">
-        <v>27490.853872157601</v>
+        <v>26384.8524284224</v>
       </c>
       <c r="BZ9">
-        <v>27812.778308485798</v>
+        <v>26700.253853361999</v>
       </c>
       <c r="CA9">
-        <v>28662.558017269301</v>
+        <v>27005.592583649901</v>
       </c>
       <c r="CB9">
-        <v>28784.4407300278</v>
+        <v>27081.753541101702</v>
       </c>
       <c r="CC9">
-        <v>29299.6522941535</v>
+        <v>27452.0603610992</v>
       </c>
       <c r="CD9">
-        <v>29833.026494957699</v>
+        <v>28374.8227714405</v>
       </c>
     </row>
     <row r="10" spans="1:82" x14ac:dyDescent="0.3">
@@ -3459,247 +3466,247 @@
         <v>89</v>
       </c>
       <c r="B10">
-        <v>126145.83521701</v>
+        <v>126092.21939819001</v>
       </c>
       <c r="C10">
-        <v>126212.58229950401</v>
+        <v>126144.572015222</v>
       </c>
       <c r="D10">
-        <v>126262.956082648</v>
+        <v>126190.808754399</v>
       </c>
       <c r="E10">
-        <v>126184.16356623999</v>
+        <v>126113.599779079</v>
       </c>
       <c r="F10">
-        <v>126241.385625034</v>
+        <v>126179.312415291</v>
       </c>
       <c r="G10">
-        <v>126294.73574282799</v>
+        <v>126231.933626396</v>
       </c>
       <c r="H10">
-        <v>126220.41741904301</v>
+        <v>126157.321218318</v>
       </c>
       <c r="I10">
-        <v>126281.953488385</v>
+        <v>126217.94637147</v>
       </c>
       <c r="J10">
-        <v>126339.480090324</v>
+        <v>126274.64234753299</v>
       </c>
       <c r="K10">
-        <v>126142.10820251799</v>
+        <v>126088.30252492199</v>
       </c>
       <c r="L10">
-        <v>126193.56336366999</v>
+        <v>126139.426012228</v>
       </c>
       <c r="M10">
-        <v>126255.254225201</v>
+        <v>126185.102933656</v>
       </c>
       <c r="N10">
-        <v>126178.74367060501</v>
+        <v>126109.545448506</v>
       </c>
       <c r="O10">
-        <v>126235.284958426</v>
+        <v>126173.559112409</v>
       </c>
       <c r="P10">
-        <v>126287.912107768</v>
+        <v>126225.491537277</v>
       </c>
       <c r="Q10">
-        <v>126214.835438764</v>
+        <v>126152.081213275</v>
       </c>
       <c r="R10">
-        <v>126275.650937648</v>
+        <v>126212.004971726</v>
       </c>
       <c r="S10">
-        <v>126332.429323708</v>
+        <v>126267.980280957</v>
       </c>
       <c r="T10">
-        <v>126139.42889118601</v>
+        <v>126085.76413327</v>
       </c>
       <c r="U10">
-        <v>126189.378425106</v>
+        <v>126135.38261077</v>
       </c>
       <c r="V10">
-        <v>126247.989030618</v>
+        <v>126179.571802815</v>
       </c>
       <c r="W10">
-        <v>126175.498655706</v>
+        <v>126107.163546296</v>
       </c>
       <c r="X10">
-        <v>126231.842505215</v>
+        <v>126158.703175528</v>
       </c>
       <c r="Y10" s="2">
-        <v>126284.26353404101</v>
+        <v>126222.203184539</v>
       </c>
       <c r="Z10">
-        <v>126209.16047916601</v>
+        <v>126146.76110624999</v>
       </c>
       <c r="AA10">
-        <v>126269.883620426</v>
+        <v>126206.60477331599</v>
       </c>
       <c r="AB10">
-        <v>126326.520877566</v>
+        <v>126262.45977295301</v>
       </c>
       <c r="AC10">
-        <v>126113.01342920899</v>
+        <v>126058.523433104</v>
       </c>
       <c r="AD10">
-        <v>126160.16442238</v>
+        <v>126105.466005086</v>
       </c>
       <c r="AE10">
-        <v>126215.115024314</v>
+        <v>126147.498062625</v>
       </c>
       <c r="AF10">
-        <v>126133.388897374</v>
+        <v>126077.312753117</v>
       </c>
       <c r="AG10">
-        <v>126195.717748082</v>
+        <v>126124.689631706</v>
       </c>
       <c r="AH10">
-        <v>126243.17677568</v>
+        <v>126180.623860725</v>
       </c>
       <c r="AI10">
-        <v>126176.53554193</v>
+        <v>126113.460300158</v>
       </c>
       <c r="AJ10">
-        <v>126231.36403642299</v>
+        <v>126167.471915357</v>
       </c>
       <c r="AK10">
-        <v>126282.24920729001</v>
+        <v>126217.624442634</v>
       </c>
       <c r="AL10">
-        <v>126111.188320188</v>
+        <v>126047.488502191</v>
       </c>
       <c r="AM10">
-        <v>126157.160440405</v>
+        <v>126102.63876804701</v>
       </c>
       <c r="AN10">
-        <v>126198.153701702</v>
+        <v>126143.471386188</v>
       </c>
       <c r="AO10">
-        <v>126130.36078277499</v>
+        <v>126074.524604986</v>
       </c>
       <c r="AP10">
-        <v>126191.69969785</v>
+        <v>126121.700070511</v>
       </c>
       <c r="AQ10">
-        <v>126238.829379231</v>
+        <v>126164.984338232</v>
       </c>
       <c r="AR10">
-        <v>126172.234012566</v>
+        <v>126098.297224554</v>
       </c>
       <c r="AS10">
-        <v>126226.639888563</v>
+        <v>126163.119207914</v>
       </c>
       <c r="AT10">
-        <v>126277.08749943601</v>
+        <v>126212.8392527</v>
       </c>
       <c r="AU10">
-        <v>126108.655004538</v>
+        <v>126047.488502191</v>
       </c>
       <c r="AV10">
-        <v>126154.541065421</v>
+        <v>126100.309478939</v>
       </c>
       <c r="AW10">
-        <v>126195.487900172</v>
+        <v>126141.107084495</v>
       </c>
       <c r="AX10">
-        <v>126128.250399146</v>
+        <v>126072.626584197</v>
       </c>
       <c r="AY10">
-        <v>126188.2742441</v>
+        <v>126119.17207316001</v>
       </c>
       <c r="AZ10">
-        <v>126235.17040445701</v>
+        <v>126162.319296356</v>
       </c>
       <c r="BA10">
-        <v>126165.769284187</v>
+        <v>126093.462254539</v>
       </c>
       <c r="BB10">
-        <v>126219.777629937</v>
+        <v>126156.669106089</v>
       </c>
       <c r="BC10">
-        <v>126269.808583873</v>
+        <v>126205.98362143</v>
       </c>
       <c r="BD10">
-        <v>126089.000401839</v>
+        <v>126027.542791612</v>
       </c>
       <c r="BE10">
-        <v>126132.215670504</v>
+        <v>126077.27148172499</v>
       </c>
       <c r="BF10">
-        <v>126170.53041572899</v>
+        <v>126115.439260317</v>
       </c>
       <c r="BG10">
-        <v>126106.300023848</v>
+        <v>126049.964033425</v>
       </c>
       <c r="BH10">
-        <v>126150.305653031</v>
+        <v>126093.785755768</v>
       </c>
       <c r="BI10">
-        <v>126205.37159399599</v>
+        <v>126133.89824056601</v>
       </c>
       <c r="BJ10">
-        <v>126143.97625206001</v>
+        <v>126072.01418605199</v>
       </c>
       <c r="BK10">
-        <v>126193.86164491301</v>
+        <v>126130.18680913901</v>
       </c>
       <c r="BL10">
-        <v>126239.95990039399</v>
+        <v>126175.60143507901</v>
       </c>
       <c r="BM10">
-        <v>126086.964388768</v>
+        <v>126027.542791612</v>
       </c>
       <c r="BN10">
-        <v>126129.765324862</v>
+        <v>126075.109907543</v>
       </c>
       <c r="BO10">
-        <v>126168.038550262</v>
+        <v>126113.23875781801</v>
       </c>
       <c r="BP10">
-        <v>126104.37736977301</v>
+        <v>126048.263199507</v>
       </c>
       <c r="BQ10">
-        <v>126147.758331923</v>
+        <v>126091.542189709</v>
       </c>
       <c r="BR10">
-        <v>126202.216913585</v>
+        <v>126131.57364779399</v>
       </c>
       <c r="BS10">
-        <v>126140.26518997501</v>
+        <v>126069.224383127</v>
       </c>
       <c r="BT10">
-        <v>126190.300809005</v>
+        <v>126126.96782742901</v>
       </c>
       <c r="BU10">
-        <v>126236.297163175</v>
+        <v>126172.28310893</v>
       </c>
       <c r="BV10">
-        <v>126084.48888177901</v>
+        <v>126027.542791612</v>
       </c>
       <c r="BW10">
-        <v>126127.222054938</v>
+        <v>126072.86074903001</v>
       </c>
       <c r="BX10">
-        <v>126165.451418232</v>
+        <v>126110.956096048</v>
       </c>
       <c r="BY10">
-        <v>126103.025560396</v>
+        <v>126047.237174168</v>
       </c>
       <c r="BZ10">
-        <v>126145.876784507</v>
+        <v>126089.901387505</v>
       </c>
       <c r="CA10">
-        <v>126198.667318457</v>
+        <v>126128.862937267</v>
       </c>
       <c r="CB10">
-        <v>126134.71224562</v>
+        <v>126064.920407165</v>
       </c>
       <c r="CC10">
-        <v>126182.76369630999</v>
+        <v>126109.246605056</v>
       </c>
       <c r="CD10">
-        <v>126227.816529007</v>
+        <v>126164.26955700399</v>
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.3">
@@ -3707,247 +3714,247 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>279058.867594368</v>
+        <v>267779.91654064599</v>
       </c>
       <c r="C11">
-        <v>285550.70722331101</v>
+        <v>270866.80786965101</v>
       </c>
       <c r="D11">
-        <v>288997.94784314203</v>
+        <v>273410.54656396603</v>
       </c>
       <c r="E11">
-        <v>288430.38257145899</v>
+        <v>272930.368944416</v>
       </c>
       <c r="F11">
-        <v>292515.46574774</v>
+        <v>279081.19801434298</v>
       </c>
       <c r="G11">
-        <v>296576.41582558898</v>
+        <v>282987.47456014599</v>
       </c>
       <c r="H11">
-        <v>297463.23573158</v>
+        <v>283573.60796484502</v>
       </c>
       <c r="I11">
-        <v>302467.79589147703</v>
+        <v>288372.084822012</v>
       </c>
       <c r="J11">
-        <v>307419.23355039</v>
+        <v>293129.95080311201</v>
       </c>
       <c r="K11">
-        <v>278064.98939232802</v>
+        <v>266756.79395950201</v>
       </c>
       <c r="L11">
-        <v>280944.45245705999</v>
+        <v>269573.49124976603</v>
       </c>
       <c r="M11">
-        <v>287092.12511971098</v>
+        <v>272007.01221554598</v>
       </c>
       <c r="N11">
-        <v>286992.40430331498</v>
+        <v>271853.764527519</v>
       </c>
       <c r="O11">
-        <v>290932.98249000398</v>
+        <v>277612.25305933901</v>
       </c>
       <c r="P11">
-        <v>294839.22055805603</v>
+        <v>281374.106478111</v>
       </c>
       <c r="Q11">
-        <v>295947.985170067</v>
+        <v>282173.417260052</v>
       </c>
       <c r="R11">
-        <v>300793.16146941303</v>
+        <v>286819.62469485798</v>
       </c>
       <c r="S11">
-        <v>305578.058144907</v>
+        <v>291420.37031898397</v>
       </c>
       <c r="T11">
-        <v>277336.164407039</v>
+        <v>266072.88360825198</v>
       </c>
       <c r="U11">
-        <v>279871.97237030498</v>
+        <v>268550.80380736198</v>
       </c>
       <c r="V11">
-        <v>285307.78712583199</v>
+        <v>270659.21539154899</v>
       </c>
       <c r="W11">
-        <v>286102.769403763</v>
+        <v>271191.45470675401</v>
       </c>
       <c r="X11">
-        <v>290007.34344462497</v>
+        <v>274023.27106597699</v>
       </c>
       <c r="Y11" s="2">
-        <v>293874.15539436101</v>
+        <v>280512.29406075401</v>
       </c>
       <c r="Z11">
-        <v>294429.18696028198</v>
+        <v>280772.216859443</v>
       </c>
       <c r="AA11">
-        <v>299270.29243202799</v>
+        <v>285416.56998692598</v>
       </c>
       <c r="AB11">
-        <v>304035.37941168598</v>
+        <v>290002.19914046302</v>
       </c>
       <c r="AC11">
-        <v>277148.33181795198</v>
+        <v>265652.96849853999</v>
       </c>
       <c r="AD11">
-        <v>279676.705546287</v>
+        <v>268150.315538586</v>
       </c>
       <c r="AE11">
-        <v>284888.33665437502</v>
+        <v>270328.41105285397</v>
       </c>
       <c r="AF11">
-        <v>282193.04188650002</v>
+        <v>270234.24136181502</v>
       </c>
       <c r="AG11">
-        <v>288315.49382174999</v>
+        <v>272754.39278502302</v>
       </c>
       <c r="AH11">
-        <v>291643.45567037299</v>
+        <v>278127.15317905898</v>
       </c>
       <c r="AI11">
-        <v>292984.21391808102</v>
+        <v>279116.977265261</v>
       </c>
       <c r="AJ11">
-        <v>297129.59157551097</v>
+        <v>283087.685271369</v>
       </c>
       <c r="AK11">
-        <v>301180.04550679802</v>
+        <v>286978.37162431399</v>
       </c>
       <c r="AL11">
-        <v>276606.88889946201</v>
+        <v>262920.00310240901</v>
       </c>
       <c r="AM11">
-        <v>278860.64722373802</v>
+        <v>267389.22340437898</v>
       </c>
       <c r="AN11">
-        <v>280785.82813035598</v>
+        <v>269299.25222417299</v>
       </c>
       <c r="AO11">
-        <v>281340.502736961</v>
+        <v>269454.49029038701</v>
       </c>
       <c r="AP11">
-        <v>287227.98297678301</v>
+        <v>271937.88250487897</v>
       </c>
       <c r="AQ11">
-        <v>290488.63690588402</v>
+        <v>274348.83121435298</v>
       </c>
       <c r="AR11">
-        <v>291782.55214562902</v>
+        <v>275277.115606901</v>
       </c>
       <c r="AS11">
-        <v>295837.594007509</v>
+        <v>281913.15264151501</v>
       </c>
       <c r="AT11">
-        <v>299793.39479613898</v>
+        <v>285711.55611833802</v>
       </c>
       <c r="AU11">
-        <v>275905.703739547</v>
+        <v>262837.07938351203</v>
       </c>
       <c r="AV11">
-        <v>278149.50464944402</v>
+        <v>266757.801412965</v>
       </c>
       <c r="AW11">
-        <v>280073.16440990299</v>
+        <v>268667.90025706397</v>
       </c>
       <c r="AX11">
-        <v>280727.59333933698</v>
+        <v>268903.506437412</v>
       </c>
       <c r="AY11">
-        <v>286299.904201489</v>
+        <v>271244.963030449</v>
       </c>
       <c r="AZ11">
-        <v>289514.69114020502</v>
+        <v>273632.11128225399</v>
       </c>
       <c r="BA11">
-        <v>290057.25911957998</v>
+        <v>273994.40350315301</v>
       </c>
       <c r="BB11">
-        <v>294036.86578175199</v>
+        <v>280249.33036456001</v>
       </c>
       <c r="BC11">
-        <v>297910.19300257199</v>
+        <v>283968.79513027798</v>
       </c>
       <c r="BD11">
-        <v>276212.79953820602</v>
+        <v>263014.199894202</v>
       </c>
       <c r="BE11">
-        <v>278344.72686690098</v>
+        <v>266744.84426661202</v>
       </c>
       <c r="BF11">
-        <v>280112.470783022</v>
+        <v>268500.86152880499</v>
       </c>
       <c r="BG11">
-        <v>280548.53533999698</v>
+        <v>268516.74319926201</v>
       </c>
       <c r="BH11">
-        <v>282798.136125419</v>
+        <v>270748.71413135697</v>
       </c>
       <c r="BI11">
-        <v>288541.049838782</v>
+        <v>272903.40000324702</v>
       </c>
       <c r="BJ11">
-        <v>290057.30643120297</v>
+        <v>273988.03743438597</v>
       </c>
       <c r="BK11">
-        <v>293606.66236908699</v>
+        <v>279622.16243122797</v>
       </c>
       <c r="BL11">
-        <v>297051.89940843801</v>
+        <v>282924.72518007801</v>
       </c>
       <c r="BM11">
-        <v>275614.82005524897</v>
+        <v>262920.00310240901</v>
       </c>
       <c r="BN11">
-        <v>277654.73635537201</v>
+        <v>266135.07745105802</v>
       </c>
       <c r="BO11">
-        <v>279421.17597901903</v>
+        <v>267889.36629202001</v>
       </c>
       <c r="BP11">
-        <v>279963.62647235999</v>
+        <v>267996.47424144199</v>
       </c>
       <c r="BQ11">
-        <v>282068.38810532098</v>
+        <v>270104.72075413901</v>
       </c>
       <c r="BR11">
-        <v>287666.93274162</v>
+        <v>272247.399629183</v>
       </c>
       <c r="BS11">
-        <v>288998.31484767201</v>
+        <v>273183.785925287</v>
       </c>
       <c r="BT11">
-        <v>292597.66072238702</v>
+        <v>278718.24502924399</v>
       </c>
       <c r="BU11">
-        <v>296027.33783856302</v>
+        <v>282005.36680126801</v>
       </c>
       <c r="BV11">
-        <v>274921.307394962</v>
+        <v>262837.07938351203</v>
       </c>
       <c r="BW11">
-        <v>276955.08265451802</v>
+        <v>265516.77850726602</v>
       </c>
       <c r="BX11">
-        <v>278720.07894570299</v>
+        <v>267271.002212436</v>
       </c>
       <c r="BY11">
-        <v>279533.86841843103</v>
+        <v>267653.93227010203</v>
       </c>
       <c r="BZ11">
-        <v>281514.87417640898</v>
+        <v>269618.66384443501</v>
       </c>
       <c r="CA11">
-        <v>286712.35611406103</v>
+        <v>271514.04546764202</v>
       </c>
       <c r="CB11">
-        <v>287491.67768883001</v>
+        <v>272022.02888582897</v>
       </c>
       <c r="CC11">
-        <v>290617.96653522499</v>
+        <v>274310.50320409797</v>
       </c>
       <c r="CD11">
-        <v>293838.21196294401</v>
+        <v>279974.05460573599</v>
       </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.3">
@@ -4063,10 +4070,10 @@
         <v>0.28732879929562299</v>
       </c>
       <c r="AL12">
-        <v>0.71426507392536498</v>
+        <v>0.71426507392536398</v>
       </c>
       <c r="AM12">
-        <v>0.71426507392536498</v>
+        <v>0.71426507392536398</v>
       </c>
       <c r="AN12">
         <v>0.71426507392536398</v>
@@ -4203,247 +4210,247 @@
         <v>92</v>
       </c>
       <c r="B13">
-        <v>3.356E-2</v>
+        <v>3.2570000000000002E-2</v>
       </c>
       <c r="C13">
-        <v>3.1719999999999998E-2</v>
+        <v>3.1029999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>3.0530000000000002E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>2.9270000000000001E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="F13">
-        <v>2.826E-2</v>
+        <v>2.7470000000000001E-2</v>
       </c>
       <c r="G13">
-        <v>2.7470000000000001E-2</v>
+        <v>2.673E-2</v>
       </c>
       <c r="H13">
-        <v>2.6669999999999999E-2</v>
+        <v>2.5930000000000002E-2</v>
       </c>
       <c r="I13">
-        <v>2.6030000000000001E-2</v>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="J13">
-        <v>2.5499999999999998E-2</v>
+        <v>2.479E-2</v>
       </c>
       <c r="K13">
-        <v>4.1169999999999998E-2</v>
+        <v>4.0309999999999999E-2</v>
       </c>
       <c r="L13">
+        <v>3.7350000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="N13">
+        <v>3.2779999999999997E-2</v>
+      </c>
+      <c r="O13">
+        <v>3.0960000000000001E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.9659999999999999E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.8320000000000001E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.724E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.6429999999999999E-2</v>
+      </c>
+      <c r="T13">
+        <v>5.6619999999999997E-2</v>
+      </c>
+      <c r="U13">
+        <v>5.0279999999999998E-2</v>
+      </c>
+      <c r="V13">
+        <v>4.6359999999999998E-2</v>
+      </c>
+      <c r="W13">
+        <v>4.1410000000000002E-2</v>
+      </c>
+      <c r="X13">
+        <v>3.8150000000000003E-2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>3.56E-2</v>
+      </c>
+      <c r="Z13">
+        <v>3.3059999999999999E-2</v>
+      </c>
+      <c r="AA13">
+        <v>3.1230000000000001E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.988E-2</v>
+      </c>
+      <c r="AC13">
+        <v>3.7420000000000002E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.5270000000000003E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.3739999999999999E-2</v>
+      </c>
+      <c r="AF13">
+        <v>3.193E-2</v>
+      </c>
+      <c r="AG13">
+        <v>3.0779999999999998E-2</v>
+      </c>
+      <c r="AH13">
+        <v>2.9739999999999999E-2</v>
+      </c>
+      <c r="AI13">
+        <v>2.861E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>2.784E-2</v>
+      </c>
+      <c r="AK13">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="AL13">
+        <v>4.793E-2</v>
+      </c>
+      <c r="AM13">
+        <v>4.3830000000000001E-2</v>
+      </c>
+      <c r="AN13">
+        <v>4.0980000000000003E-2</v>
+      </c>
+      <c r="AO13">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="AP13">
+        <v>3.5409999999999997E-2</v>
+      </c>
+      <c r="AQ13">
+        <v>3.3849999999999998E-2</v>
+      </c>
+      <c r="AR13">
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="AS13">
+        <v>3.0419999999999999E-2</v>
+      </c>
+      <c r="AT13">
+        <v>2.946E-2</v>
+      </c>
+      <c r="AU13">
+        <v>6.8080000000000002E-2</v>
+      </c>
+      <c r="AV13">
+        <v>6.0130000000000003E-2</v>
+      </c>
+      <c r="AW13">
+        <v>5.4859999999999999E-2</v>
+      </c>
+      <c r="AX13">
+        <v>4.9410000000000003E-2</v>
+      </c>
+      <c r="AY13">
+        <v>4.4979999999999999E-2</v>
+      </c>
+      <c r="AZ13">
+        <v>4.197E-2</v>
+      </c>
+      <c r="BA13">
+        <v>3.8449999999999998E-2</v>
+      </c>
+      <c r="BB13">
+        <v>3.5770000000000003E-2</v>
+      </c>
+      <c r="BC13">
+        <v>3.406E-2</v>
+      </c>
+      <c r="BD13">
+        <v>4.2779999999999999E-2</v>
+      </c>
+      <c r="BE13">
+        <v>3.9739999999999998E-2</v>
+      </c>
+      <c r="BF13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BG13">
+        <v>3.5709999999999999E-2</v>
+      </c>
+      <c r="BH13">
+        <v>3.415E-2</v>
+      </c>
+      <c r="BI13">
+        <v>3.3059999999999999E-2</v>
+      </c>
+      <c r="BJ13">
+        <v>3.1629999999999998E-2</v>
+      </c>
+      <c r="BK13">
+        <v>3.0519999999999999E-2</v>
+      </c>
+      <c r="BL13">
+        <v>2.98E-2</v>
+      </c>
+      <c r="BM13">
+        <v>5.6259999999999998E-2</v>
+      </c>
+      <c r="BN13">
+        <v>5.0680000000000003E-2</v>
+      </c>
+      <c r="BO13">
+        <v>4.7289999999999999E-2</v>
+      </c>
+      <c r="BP13">
+        <v>4.3119999999999999E-2</v>
+      </c>
+      <c r="BQ13">
+        <v>4.0079999999999998E-2</v>
+      </c>
+      <c r="BR13">
         <v>3.8129999999999997E-2</v>
       </c>
-      <c r="M13">
-        <v>3.5920000000000001E-2</v>
-      </c>
-      <c r="N13">
-        <v>3.3459999999999997E-2</v>
-      </c>
-      <c r="O13">
-        <v>3.1710000000000002E-2</v>
-      </c>
-      <c r="P13">
-        <v>3.0450000000000001E-2</v>
-      </c>
-      <c r="Q13">
-        <v>2.903E-2</v>
-      </c>
-      <c r="R13">
-        <v>2.7969999999999998E-2</v>
-      </c>
-      <c r="S13">
-        <v>2.7179999999999999E-2</v>
-      </c>
-      <c r="T13">
-        <v>5.747E-2</v>
-      </c>
-      <c r="U13">
-        <v>5.1389999999999998E-2</v>
-      </c>
-      <c r="V13">
-        <v>4.7109999999999999E-2</v>
-      </c>
-      <c r="W13">
-        <v>4.2169999999999999E-2</v>
-      </c>
-      <c r="X13">
-        <v>3.8780000000000002E-2</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>3.6459999999999999E-2</v>
-      </c>
-      <c r="Z13">
-        <v>3.3959999999999997E-2</v>
-      </c>
-      <c r="AA13">
-        <v>3.1949999999999999E-2</v>
-      </c>
-      <c r="AB13">
-        <v>3.058E-2</v>
-      </c>
-      <c r="AC13">
-        <v>3.8539999999999998E-2</v>
-      </c>
-      <c r="AD13">
-        <v>3.6450000000000003E-2</v>
-      </c>
-      <c r="AE13">
-        <v>3.4680000000000002E-2</v>
-      </c>
-      <c r="AF13">
-        <v>3.3149999999999999E-2</v>
-      </c>
-      <c r="AG13">
-        <v>3.1609999999999999E-2</v>
-      </c>
-      <c r="AH13">
-        <v>3.0669999999999999E-2</v>
-      </c>
-      <c r="AI13">
-        <v>2.9520000000000001E-2</v>
-      </c>
-      <c r="AJ13">
-        <v>2.8729999999999999E-2</v>
-      </c>
-      <c r="AK13">
-        <v>2.811E-2</v>
-      </c>
-      <c r="AL13">
-        <v>4.8860000000000001E-2</v>
-      </c>
-      <c r="AM13">
-        <v>4.4909999999999999E-2</v>
-      </c>
-      <c r="AN13">
-        <v>4.2079999999999999E-2</v>
-      </c>
-      <c r="AO13">
-        <v>3.8730000000000001E-2</v>
-      </c>
-      <c r="AP13">
-        <v>3.6229999999999998E-2</v>
-      </c>
-      <c r="AQ13">
-        <v>3.4590000000000003E-2</v>
-      </c>
-      <c r="AR13">
+      <c r="BS13">
+        <v>3.5659999999999997E-2</v>
+      </c>
+      <c r="BT13">
+        <v>3.3790000000000001E-2</v>
+      </c>
+      <c r="BU13">
         <v>3.2669999999999998E-2</v>
       </c>
-      <c r="AS13">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="AT13">
-        <v>3.0380000000000001E-2</v>
-      </c>
-      <c r="AU13">
-        <v>6.9269999999999998E-2</v>
-      </c>
-      <c r="AV13">
-        <v>6.1210000000000001E-2</v>
-      </c>
-      <c r="AW13">
-        <v>5.604E-2</v>
-      </c>
-      <c r="AX13">
-        <v>5.0310000000000001E-2</v>
-      </c>
-      <c r="AY13">
-        <v>4.5830000000000003E-2</v>
-      </c>
-      <c r="AZ13">
-        <v>4.2790000000000002E-2</v>
-      </c>
-      <c r="BA13">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="BB13">
-        <v>3.6659999999999998E-2</v>
-      </c>
-      <c r="BC13">
-        <v>3.4909999999999997E-2</v>
-      </c>
-      <c r="BD13">
-        <v>4.3970000000000002E-2</v>
-      </c>
-      <c r="BE13">
-        <v>4.1180000000000001E-2</v>
-      </c>
-      <c r="BF13">
-        <v>3.9280000000000002E-2</v>
-      </c>
-      <c r="BG13">
-        <v>3.6940000000000001E-2</v>
-      </c>
-      <c r="BH13">
-        <v>3.542E-2</v>
-      </c>
-      <c r="BI13">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="BJ13">
-        <v>3.252E-2</v>
-      </c>
-      <c r="BK13">
-        <v>3.1550000000000002E-2</v>
-      </c>
-      <c r="BL13">
-        <v>3.0849999999999999E-2</v>
-      </c>
-      <c r="BM13">
-        <v>5.7549999999999997E-2</v>
-      </c>
-      <c r="BN13">
-        <v>5.203E-2</v>
-      </c>
-      <c r="BO13">
-        <v>4.8579999999999998E-2</v>
-      </c>
-      <c r="BP13">
-        <v>4.4240000000000002E-2</v>
-      </c>
-      <c r="BQ13">
-        <v>4.147E-2</v>
-      </c>
-      <c r="BR13">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="BS13">
-        <v>3.6589999999999998E-2</v>
-      </c>
-      <c r="BT13">
-        <v>3.4869999999999998E-2</v>
-      </c>
-      <c r="BU13">
-        <v>3.3669999999999999E-2</v>
-      </c>
       <c r="BV13">
-        <v>7.1550000000000002E-2</v>
+        <v>6.9949999999999998E-2</v>
       </c>
       <c r="BW13">
-        <v>6.336E-2</v>
+        <v>6.1990000000000003E-2</v>
       </c>
       <c r="BX13">
-        <v>5.7939999999999998E-2</v>
+        <v>5.6669999999999998E-2</v>
       </c>
       <c r="BY13">
-        <v>5.9490000000000001E-2</v>
+        <v>5.8229999999999997E-2</v>
       </c>
       <c r="BZ13">
-        <v>5.3809999999999997E-2</v>
+        <v>5.2479999999999999E-2</v>
       </c>
       <c r="CA13">
-        <v>4.9459999999999997E-2</v>
+        <v>4.8570000000000002E-2</v>
       </c>
       <c r="CB13">
-        <v>4.4990000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="CC13">
-        <v>4.1829999999999999E-2</v>
+        <v>4.1029999999999997E-2</v>
       </c>
       <c r="CD13">
-        <v>3.9710000000000002E-2</v>
+        <v>3.8559999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.3">
@@ -4451,247 +4458,247 @@
         <v>93</v>
       </c>
       <c r="B14">
-        <v>13.0463158769793</v>
+        <v>13.442872607658099</v>
       </c>
       <c r="C14">
-        <v>13.8031009089352</v>
+        <v>14.1100341872841</v>
       </c>
       <c r="D14">
-        <v>14.3411189266762</v>
+        <v>14.643289659913901</v>
       </c>
       <c r="E14">
-        <v>10.989894919177001</v>
+        <v>11.243419233985</v>
       </c>
       <c r="F14">
-        <v>11.3826689414123</v>
+        <v>11.710019085704801</v>
       </c>
       <c r="G14">
-        <v>11.710019085704801</v>
+        <v>12.034202180483</v>
       </c>
       <c r="H14">
-        <v>9.2344142470070096</v>
+        <v>9.4979494009902492</v>
       </c>
       <c r="I14">
-        <v>9.4614609284547502</v>
+        <v>9.7306135111685901</v>
       </c>
       <c r="J14">
-        <v>9.6581109006932202</v>
+        <v>9.9347248070866101</v>
       </c>
       <c r="K14">
-        <v>14.870711834387601</v>
+        <v>15.187973361988099</v>
       </c>
       <c r="L14">
-        <v>16.056312777910801</v>
+        <v>16.3916253339154</v>
       </c>
       <c r="M14">
-        <v>17.0441872556164</v>
+        <v>17.3780075566773</v>
       </c>
       <c r="N14">
-        <v>13.442904365848101</v>
+        <v>13.7217687639194</v>
       </c>
       <c r="O14">
-        <v>14.1847865052437</v>
+        <v>14.528410209343599</v>
       </c>
       <c r="P14">
-        <v>14.7717431882193</v>
+        <v>15.165191506449</v>
       </c>
       <c r="Q14">
-        <v>11.8628247846961</v>
+        <v>12.1602331744254</v>
       </c>
       <c r="R14">
-        <v>12.312399124051799</v>
+        <v>12.642356956671399</v>
       </c>
       <c r="S14">
-        <v>12.670265029423399</v>
+        <v>13.029807169872401</v>
       </c>
       <c r="T14">
-        <v>15.1817125122978</v>
+        <v>15.4096258933549</v>
       </c>
       <c r="U14">
-        <v>16.977875424825001</v>
+        <v>17.352685323821699</v>
       </c>
       <c r="V14">
-        <v>18.520335769088401</v>
+        <v>18.819952935326899</v>
       </c>
       <c r="W14">
-        <v>15.200741726124701</v>
+        <v>15.479721772293599</v>
       </c>
       <c r="X14">
-        <v>16.529532712498099</v>
+        <v>16.802497472888</v>
       </c>
       <c r="Y14" s="2">
-        <v>17.5813296377037</v>
+        <v>18.006047151423498</v>
       </c>
       <c r="Z14">
-        <v>14.451629053915999</v>
+        <v>14.845049082607</v>
       </c>
       <c r="AA14">
-        <v>15.3607925718619</v>
+        <v>15.714931881876</v>
       </c>
       <c r="AB14">
-        <v>16.048964116121201</v>
+        <v>16.424943864490899</v>
       </c>
       <c r="AC14">
-        <v>13.2539375792249</v>
+        <v>13.6506348023337</v>
       </c>
       <c r="AD14">
-        <v>14.013902724371199</v>
+        <v>14.4827545875625</v>
       </c>
       <c r="AE14">
-        <v>14.729145164455799</v>
+        <v>15.1395007203121</v>
       </c>
       <c r="AF14">
-        <v>11.320862594219101</v>
+        <v>11.7534166927142</v>
       </c>
       <c r="AG14">
-        <v>11.8724009806505</v>
+        <v>12.1925469460157</v>
       </c>
       <c r="AH14">
-        <v>12.2362763286066</v>
+        <v>12.618917114941601</v>
       </c>
       <c r="AI14">
-        <v>9.7333604097433302</v>
+        <v>10.0429499928564</v>
       </c>
       <c r="AJ14">
-        <v>10.0010024119604</v>
+        <v>10.3207183655037</v>
       </c>
       <c r="AK14">
-        <v>10.2215865989193</v>
+        <v>10.5519206498576</v>
       </c>
       <c r="AL14">
-        <v>14.618605688198199</v>
+        <v>14.9022548284031</v>
       </c>
       <c r="AM14">
-        <v>15.9043659302018</v>
+        <v>16.296259957229399</v>
       </c>
       <c r="AN14">
-        <v>16.9739798936636</v>
+        <v>17.4296016087204</v>
       </c>
       <c r="AO14">
-        <v>13.549346159604699</v>
+        <v>13.956547254295</v>
       </c>
       <c r="AP14">
-        <v>14.4842996621996</v>
+        <v>14.8197169376304</v>
       </c>
       <c r="AQ14">
-        <v>15.17103720039</v>
+        <v>15.5026935527767</v>
       </c>
       <c r="AR14">
-        <v>12.297952374748</v>
+        <v>12.5790264271452</v>
       </c>
       <c r="AS14">
-        <v>12.8362333572849</v>
+        <v>13.207564236785499</v>
       </c>
       <c r="AT14">
-        <v>13.224954051448901</v>
+        <v>13.6379532954181</v>
       </c>
       <c r="AU14">
-        <v>14.436263894904</v>
+        <v>14.688601645123301</v>
       </c>
       <c r="AV14">
-        <v>16.337199803953599</v>
+        <v>16.630633627141101</v>
       </c>
       <c r="AW14">
-        <v>17.844396859386102</v>
+        <v>18.228217280349899</v>
       </c>
       <c r="AX14">
-        <v>14.8648610287376</v>
+        <v>15.1356235247074</v>
       </c>
       <c r="AY14">
-        <v>16.3179393051667</v>
+        <v>16.626304098616998</v>
       </c>
       <c r="AZ14">
-        <v>17.4772413731197</v>
+        <v>17.818707609144401</v>
       </c>
       <c r="BA14">
-        <v>14.6438246321266</v>
+        <v>14.8913795348804</v>
       </c>
       <c r="BB14">
-        <v>15.6184818089512</v>
+        <v>16.007088149738699</v>
       </c>
       <c r="BC14">
-        <v>16.401419166890602</v>
+        <v>16.810732328718501</v>
       </c>
       <c r="BD14">
-        <v>13.2767602405102</v>
+        <v>13.6460763855828</v>
       </c>
       <c r="BE14">
-        <v>14.1762784792432</v>
+        <v>14.6899634568504</v>
       </c>
       <c r="BF14">
-        <v>14.861994597129099</v>
+        <v>15.3626091519798</v>
       </c>
       <c r="BG14">
-        <v>11.6106920875045</v>
+        <v>12.0106123134253</v>
       </c>
       <c r="BH14">
-        <v>12.1089487778774</v>
+        <v>12.5592669315495</v>
       </c>
       <c r="BI14">
-        <v>12.614675462129901</v>
+        <v>12.973350445021699</v>
       </c>
       <c r="BJ14">
-        <v>10.0976559232339</v>
+        <v>10.3817821885415</v>
       </c>
       <c r="BK14">
-        <v>10.408106834344499</v>
+        <v>10.759363388714499</v>
       </c>
       <c r="BL14">
-        <v>10.6442713330168</v>
+        <v>11.019321161864699</v>
       </c>
       <c r="BM14">
-        <v>14.184238777219599</v>
+        <v>14.5094728337893</v>
       </c>
       <c r="BN14">
-        <v>15.689082099346299</v>
+        <v>16.1070035838395</v>
       </c>
       <c r="BO14">
-        <v>16.803271750287902</v>
+        <v>17.261639704567301</v>
       </c>
       <c r="BP14">
-        <v>13.5563465967835</v>
+        <v>13.908459495401299</v>
       </c>
       <c r="BQ14">
-        <v>14.4618464779769</v>
+        <v>14.9633925509407</v>
       </c>
       <c r="BR14">
-        <v>15.3384341033684</v>
+        <v>15.728632925300399</v>
       </c>
       <c r="BS14">
-        <v>12.5490681789097</v>
+        <v>12.8763433725828</v>
       </c>
       <c r="BT14">
-        <v>13.168064372420501</v>
+        <v>13.5889436124979</v>
       </c>
       <c r="BU14">
-        <v>13.6373746559639</v>
+        <v>14.054802713997701</v>
       </c>
       <c r="BV14">
-        <v>13.9762403913347</v>
+        <v>14.2959256611865</v>
       </c>
       <c r="BW14">
-        <v>15.7828282828282</v>
+        <v>16.131634134537801</v>
       </c>
       <c r="BX14">
-        <v>17.2592336900241</v>
+        <v>17.6460208223045</v>
       </c>
       <c r="BY14">
-        <v>14.366902641131301</v>
+        <v>14.6777784324387</v>
       </c>
       <c r="BZ14">
-        <v>15.8834238639826</v>
+        <v>16.285957281267201</v>
       </c>
       <c r="CA14">
-        <v>17.280368744862599</v>
+        <v>17.597015402942201</v>
       </c>
       <c r="CB14">
-        <v>14.544782475246</v>
+        <v>14.872040080939</v>
       </c>
       <c r="CC14">
-        <v>15.643551603187101</v>
+        <v>15.9485684514091</v>
       </c>
       <c r="CD14">
-        <v>16.478714771123599</v>
+        <v>16.970170216839101</v>
       </c>
     </row>
     <row r="15" spans="1:82" x14ac:dyDescent="0.3">
@@ -5443,247 +5450,247 @@
         <v>97</v>
       </c>
       <c r="B18">
-        <v>242.17750671850499</v>
+        <v>233.26482875485101</v>
       </c>
       <c r="C18">
-        <v>251.52654468075701</v>
+        <v>237.648465536787</v>
       </c>
       <c r="D18">
-        <v>256.53234889782999</v>
+        <v>241.279164918764</v>
       </c>
       <c r="E18">
-        <v>255.622451034362</v>
+        <v>240.51306349796201</v>
       </c>
       <c r="F18">
-        <v>261.58343626219897</v>
+        <v>249.34913346131</v>
       </c>
       <c r="G18">
-        <v>267.547096270731</v>
+        <v>255.008565636876</v>
       </c>
       <c r="H18">
-        <v>268.77206596516902</v>
+        <v>255.782010693985</v>
       </c>
       <c r="I18">
-        <v>276.17980483376698</v>
+        <v>262.78790624280799</v>
       </c>
       <c r="J18">
-        <v>283.56199029554102</v>
+        <v>269.78630373570098</v>
       </c>
       <c r="K18">
-        <v>240.894933387425</v>
+        <v>231.95236384679799</v>
       </c>
       <c r="L18">
-        <v>245.023907603677</v>
+        <v>235.945857547445</v>
       </c>
       <c r="M18">
-        <v>253.90742397912399</v>
+        <v>239.412629734284</v>
       </c>
       <c r="N18">
-        <v>253.692880327609</v>
+        <v>239.12763646429499</v>
       </c>
       <c r="O18">
-        <v>259.432220751145</v>
+        <v>247.38644460213101</v>
       </c>
       <c r="P18">
-        <v>265.157007980858</v>
+        <v>252.82567543779601</v>
       </c>
       <c r="Q18">
-        <v>266.71979885280803</v>
+        <v>253.920120625126</v>
       </c>
       <c r="R18">
-        <v>273.87873447189799</v>
+        <v>260.691698382124</v>
       </c>
       <c r="S18">
-        <v>280.99871630411002</v>
+        <v>267.44595686055999</v>
       </c>
       <c r="T18">
-        <v>239.97560444885201</v>
+        <v>231.10433839414199</v>
       </c>
       <c r="U18">
-        <v>243.60769302741701</v>
+        <v>234.61356020929</v>
       </c>
       <c r="V18">
-        <v>251.447146977844</v>
+        <v>237.61209690272699</v>
       </c>
       <c r="W18">
-        <v>252.542091414444</v>
+        <v>238.31609958463801</v>
       </c>
       <c r="X18">
-        <v>258.223366590701</v>
+        <v>242.36438001284401</v>
       </c>
       <c r="Y18" s="2">
-        <v>263.884668191971</v>
+        <v>251.71605588522601</v>
       </c>
       <c r="Z18">
-        <v>264.64369063124701</v>
+        <v>252.03869895211</v>
       </c>
       <c r="AA18">
-        <v>271.78388521057002</v>
+        <v>258.795768447679</v>
       </c>
       <c r="AB18">
-        <v>278.862199912866</v>
+        <v>265.51652631548598</v>
       </c>
       <c r="AC18">
-        <v>205.23943845432001</v>
+        <v>197.36476465146899</v>
       </c>
       <c r="AD18">
-        <v>208.33953776319601</v>
+        <v>200.39101509438601</v>
       </c>
       <c r="AE18">
-        <v>214.77252552400401</v>
+        <v>203.041820703182</v>
       </c>
       <c r="AF18">
-        <v>211.36882949802401</v>
+        <v>202.85982097311401</v>
       </c>
       <c r="AG18">
-        <v>218.96174319603699</v>
+        <v>205.938556459647</v>
       </c>
       <c r="AH18">
-        <v>223.12092788814201</v>
+        <v>212.54784436724799</v>
       </c>
       <c r="AI18">
-        <v>224.73371436640599</v>
+        <v>213.705985286198</v>
       </c>
       <c r="AJ18">
-        <v>229.954426923542</v>
+        <v>218.636177326395</v>
       </c>
       <c r="AK18">
-        <v>235.087252270937</v>
+        <v>223.49792023880099</v>
       </c>
       <c r="AL18">
-        <v>204.696052038087</v>
+        <v>194.182615750868</v>
       </c>
       <c r="AM18">
-        <v>207.45752905773799</v>
+        <v>199.583322132858</v>
       </c>
       <c r="AN18">
-        <v>209.82506783691201</v>
+        <v>201.90525829417501</v>
       </c>
       <c r="AO18">
-        <v>210.45056560527101</v>
+        <v>202.038274036855</v>
       </c>
       <c r="AP18">
-        <v>217.74425773949599</v>
+        <v>205.069439171396</v>
       </c>
       <c r="AQ18">
-        <v>221.814196896358</v>
+        <v>208.02504865418399</v>
       </c>
       <c r="AR18">
-        <v>223.37760580481401</v>
+        <v>209.11202483228101</v>
       </c>
       <c r="AS18">
-        <v>228.47768446330099</v>
+        <v>217.321971007081</v>
       </c>
       <c r="AT18">
-        <v>233.48340867792299</v>
+        <v>222.061874805505</v>
       </c>
       <c r="AU18">
-        <v>203.94334597564099</v>
+        <v>194.182615750868</v>
       </c>
       <c r="AV18">
-        <v>206.69040449776401</v>
+        <v>198.91945681579301</v>
       </c>
       <c r="AW18">
-        <v>209.054189291727</v>
+        <v>201.23982001231499</v>
       </c>
       <c r="AX18">
-        <v>209.81211851927401</v>
+        <v>201.48023480172799</v>
       </c>
       <c r="AY18">
-        <v>216.70976903139899</v>
+        <v>204.33634690801301</v>
       </c>
       <c r="AZ18">
-        <v>220.71820082450199</v>
+        <v>207.26055789649499</v>
       </c>
       <c r="BA18">
-        <v>221.34943367660301</v>
+        <v>207.66064665395999</v>
       </c>
       <c r="BB18">
-        <v>226.343445243563</v>
+        <v>215.38384701468101</v>
       </c>
       <c r="BC18">
-        <v>231.23365620974801</v>
+        <v>220.01482167351301</v>
       </c>
       <c r="BD18">
-        <v>178.58389083475501</v>
+        <v>169.90978878201</v>
       </c>
       <c r="BE18">
-        <v>180.86656612947601</v>
+        <v>173.85037997999399</v>
       </c>
       <c r="BF18">
-        <v>182.765824722791</v>
+        <v>175.71481054367999</v>
       </c>
       <c r="BG18">
-        <v>183.17481484602601</v>
+        <v>175.67345479781301</v>
       </c>
       <c r="BH18">
-        <v>185.601321369863</v>
+        <v>178.05129509143299</v>
       </c>
       <c r="BI18">
-        <v>191.83756876085599</v>
+        <v>180.35589624668299</v>
       </c>
       <c r="BJ18">
-        <v>193.43428923915201</v>
+        <v>181.46296001576599</v>
       </c>
       <c r="BK18">
-        <v>197.326066765674</v>
+        <v>187.54001479796801</v>
       </c>
       <c r="BL18">
-        <v>201.124242349079</v>
+        <v>191.129055960664</v>
       </c>
       <c r="BM18">
-        <v>178.04850175982901</v>
+        <v>169.90978878201</v>
       </c>
       <c r="BN18">
-        <v>180.23126159800699</v>
+        <v>173.30527963409699</v>
       </c>
       <c r="BO18">
-        <v>182.127780785803</v>
+        <v>175.166716928932</v>
       </c>
       <c r="BP18">
-        <v>182.660880788534</v>
+        <v>175.23189154057499</v>
       </c>
       <c r="BQ18">
-        <v>184.92984440472</v>
+        <v>177.47678883085501</v>
       </c>
       <c r="BR18">
-        <v>191.004542343135</v>
+        <v>179.767153288971</v>
       </c>
       <c r="BS18">
-        <v>192.407742536021</v>
+        <v>180.723784680824</v>
       </c>
       <c r="BT18">
-        <v>196.350175931</v>
+        <v>186.68813265019801</v>
       </c>
       <c r="BU18">
-        <v>200.12746957558099</v>
+        <v>190.257109974087</v>
       </c>
       <c r="BV18">
-        <v>177.39893565140699</v>
+        <v>169.90978878201</v>
       </c>
       <c r="BW18">
-        <v>179.573381988113</v>
+        <v>172.739259490949</v>
       </c>
       <c r="BX18">
-        <v>181.46685740969599</v>
+        <v>174.59932000744001</v>
       </c>
       <c r="BY18">
-        <v>182.30009199043499</v>
+        <v>174.96586490996299</v>
       </c>
       <c r="BZ18">
-        <v>184.434869419667</v>
+        <v>177.05738629550399</v>
       </c>
       <c r="CA18">
-        <v>190.07001337711699</v>
+        <v>179.08217893667</v>
       </c>
       <c r="CB18">
-        <v>190.87825417790299</v>
+        <v>179.58722507361901</v>
       </c>
       <c r="CC18">
-        <v>194.29477648642899</v>
+        <v>182.04284059084301</v>
       </c>
       <c r="CD18">
-        <v>197.831740682743</v>
+        <v>188.16195471777499</v>
       </c>
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.3">
@@ -5691,247 +5698,247 @@
         <v>98</v>
       </c>
       <c r="B19">
-        <v>44.016134016381301</v>
+        <v>43.198595232238901</v>
       </c>
       <c r="C19">
-        <v>50.152422142978999</v>
+        <v>48.7492015869786</v>
       </c>
       <c r="D19">
-        <v>55.483224372543098</v>
+        <v>53.808456389541298</v>
       </c>
       <c r="E19">
-        <v>45.221450753761701</v>
+        <v>43.864615671218303</v>
       </c>
       <c r="F19">
-        <v>51.145228151040598</v>
+        <v>49.934870928171001</v>
       </c>
       <c r="G19">
-        <v>56.6618492042819</v>
+        <v>55.318195809719903</v>
       </c>
       <c r="H19">
-        <v>46.369995985781102</v>
+        <v>45.235562177913501</v>
       </c>
       <c r="I19">
-        <v>52.552811992677199</v>
+        <v>51.262842902321403</v>
       </c>
       <c r="J19">
-        <v>58.333042810627397</v>
+        <v>56.898467860113897</v>
       </c>
       <c r="K19">
-        <v>43.899424450662202</v>
+        <v>43.076895324226697</v>
       </c>
       <c r="L19">
-        <v>49.499889656814098</v>
+        <v>48.574258362577702</v>
       </c>
       <c r="M19">
-        <v>55.198633024283303</v>
+        <v>53.599921238854499</v>
       </c>
       <c r="N19">
-        <v>45.050449971347398</v>
+        <v>43.738096571688601</v>
       </c>
       <c r="O19">
-        <v>50.934489371264398</v>
+        <v>49.7379577990624</v>
       </c>
       <c r="P19">
-        <v>56.408191743489603</v>
+        <v>55.080923242567003</v>
       </c>
       <c r="Q19">
-        <v>46.192622688287202</v>
+        <v>45.070621972644297</v>
       </c>
       <c r="R19">
-        <v>52.333424737150402</v>
+        <v>51.057976691416599</v>
       </c>
       <c r="S19">
-        <v>58.068791925175397</v>
+        <v>56.651138402742802</v>
       </c>
       <c r="T19">
-        <v>43.815577544873499</v>
+        <v>42.998077947195902</v>
       </c>
       <c r="U19">
-        <v>49.3566300538658</v>
+        <v>48.4369239536626</v>
       </c>
       <c r="V19">
-        <v>54.930554008986</v>
+        <v>53.397988378146998</v>
       </c>
       <c r="W19">
-        <v>44.948156039102997</v>
+        <v>43.663815644960501</v>
       </c>
       <c r="X19">
-        <v>50.815683267147101</v>
+        <v>49.230516959792702</v>
       </c>
       <c r="Y19" s="2">
-        <v>56.272693362799501</v>
+        <v>54.9599187647026</v>
       </c>
       <c r="Z19">
-        <v>46.012493140993499</v>
+        <v>44.903336085606</v>
       </c>
       <c r="AA19">
-        <v>52.132896064823598</v>
+        <v>50.871973467487898</v>
       </c>
       <c r="AB19">
-        <v>57.8476135977483</v>
+        <v>56.446419866859898</v>
       </c>
       <c r="AC19">
-        <v>40.520556605685499</v>
+        <v>39.735602640601201</v>
       </c>
       <c r="AD19">
-        <v>45.644226114942001</v>
+        <v>44.765055020002599</v>
       </c>
       <c r="AE19">
-        <v>50.7668228894428</v>
+        <v>49.360934436436601</v>
       </c>
       <c r="AF19">
-        <v>41.121170167982697</v>
+        <v>40.284967019781902</v>
       </c>
       <c r="AG19">
-        <v>46.793348159331003</v>
+        <v>45.380453552123903</v>
       </c>
       <c r="AH19">
-        <v>51.7440927513248</v>
+        <v>50.503209129786804</v>
       </c>
       <c r="AI19">
-        <v>42.401293788412197</v>
+        <v>41.347888486470303</v>
       </c>
       <c r="AJ19">
-        <v>47.953563676075497</v>
+        <v>46.758547595749299</v>
       </c>
       <c r="AK19">
-        <v>53.113529606412399</v>
+        <v>51.787788549672698</v>
       </c>
       <c r="AL19">
-        <v>40.466880486450798</v>
+        <v>39.413968666031899</v>
       </c>
       <c r="AM19">
-        <v>45.5475058656057</v>
+        <v>44.674749258709703</v>
       </c>
       <c r="AN19">
-        <v>50.1786888434019</v>
+        <v>49.222587290085698</v>
       </c>
       <c r="AO19">
-        <v>41.031750204471699</v>
+        <v>40.203310713109701</v>
       </c>
       <c r="AP19">
-        <v>46.663075095785899</v>
+        <v>45.284593315099599</v>
       </c>
       <c r="AQ19">
-        <v>51.592347908932098</v>
+        <v>49.962992142687099</v>
       </c>
       <c r="AR19">
-        <v>42.273169344615098</v>
+        <v>40.901053759753502</v>
       </c>
       <c r="AS19">
-        <v>47.799339374441203</v>
+        <v>46.617804646624101</v>
       </c>
       <c r="AT19">
-        <v>52.932040430490403</v>
+        <v>51.621143901177398</v>
       </c>
       <c r="AU19">
-        <v>40.392409779624799</v>
+        <v>39.413968666031899</v>
       </c>
       <c r="AV19">
-        <v>45.463216394989502</v>
+        <v>44.6003875337192</v>
       </c>
       <c r="AW19">
-        <v>50.086428016986098</v>
+        <v>49.141406574779502</v>
       </c>
       <c r="AX19">
-        <v>40.969463605888102</v>
+        <v>40.147750602167299</v>
       </c>
       <c r="AY19">
-        <v>46.552096518996798</v>
+        <v>45.203578056168602</v>
       </c>
       <c r="AZ19">
-        <v>51.464729766064302</v>
+        <v>49.871100797535497</v>
       </c>
       <c r="BA19">
-        <v>42.080820683689502</v>
+        <v>40.758866191684902</v>
       </c>
       <c r="BB19">
-        <v>47.575565707993697</v>
+        <v>46.409465307702199</v>
       </c>
       <c r="BC19">
-        <v>52.676407190667199</v>
+        <v>51.382661084086998</v>
       </c>
       <c r="BD19">
-        <v>37.797766159894202</v>
+        <v>36.868391750333799</v>
       </c>
       <c r="BE19">
-        <v>42.5284100489868</v>
+        <v>41.695369045014303</v>
       </c>
       <c r="BF19">
-        <v>46.831505385514703</v>
+        <v>45.919252242650501</v>
       </c>
       <c r="BG19">
-        <v>38.280524013761998</v>
+        <v>37.488500081791798</v>
       </c>
       <c r="BH19">
-        <v>43.0814718144428</v>
+        <v>42.196124832907699</v>
       </c>
       <c r="BI19">
-        <v>47.979691799033802</v>
+        <v>46.521723473665404</v>
       </c>
       <c r="BJ19">
-        <v>39.337950047164597</v>
+        <v>38.1012293781464</v>
       </c>
       <c r="BK19">
-        <v>44.421398758444603</v>
+        <v>43.305890453605599</v>
       </c>
       <c r="BL19">
-        <v>49.1272929051555</v>
+        <v>47.891008253407797</v>
       </c>
       <c r="BM19">
-        <v>37.741065354314401</v>
+        <v>36.868391750333799</v>
       </c>
       <c r="BN19">
-        <v>42.453652563473</v>
+        <v>41.629950712689698</v>
       </c>
       <c r="BO19">
-        <v>46.7496884420596</v>
+        <v>45.847580123133902</v>
       </c>
       <c r="BP19">
-        <v>38.226784409733803</v>
+        <v>37.441355909269703</v>
       </c>
       <c r="BQ19">
-        <v>43.003470139596899</v>
+        <v>42.127994116840597</v>
       </c>
       <c r="BR19">
-        <v>47.875406088278901</v>
+        <v>46.445730045588199</v>
       </c>
       <c r="BS19">
-        <v>39.233428862236501</v>
+        <v>38.023548985419403</v>
       </c>
       <c r="BT19">
-        <v>44.311417933868903</v>
+        <v>43.207422122848101</v>
       </c>
       <c r="BU19">
-        <v>49.005404139818801</v>
+        <v>47.781642078198303</v>
       </c>
       <c r="BV19">
-        <v>37.672157957983501</v>
+        <v>36.868391750333799</v>
       </c>
       <c r="BW19">
-        <v>42.376099630347397</v>
+        <v>41.561912791755503</v>
       </c>
       <c r="BX19">
-        <v>46.664786390986102</v>
+        <v>45.773265560688202</v>
       </c>
       <c r="BY19">
-        <v>38.189013288162897</v>
+        <v>37.4129244951488</v>
       </c>
       <c r="BZ19">
-        <v>42.945880992205403</v>
+        <v>42.078187496077398</v>
       </c>
       <c r="CA19">
-        <v>47.758142347932697</v>
+        <v>46.3571585328528</v>
       </c>
       <c r="CB19">
-        <v>39.077180469210198</v>
+        <v>37.9037966513771</v>
       </c>
       <c r="CC19">
-        <v>44.078881166203502</v>
+        <v>42.666478714658801</v>
       </c>
       <c r="CD19">
-        <v>48.723514735627603</v>
+        <v>47.517822515486799</v>
       </c>
     </row>
     <row r="20" spans="1:82" x14ac:dyDescent="0.3">
@@ -5939,247 +5946,247 @@
         <v>99</v>
       </c>
       <c r="B20">
-        <v>7.86002393149667</v>
+        <v>7.7140348628998003</v>
       </c>
       <c r="C20">
-        <v>7.16463173471129</v>
+        <v>6.9641716552826596</v>
       </c>
       <c r="D20">
-        <v>6.6051457586360796</v>
+        <v>6.4057686178025399</v>
       </c>
       <c r="E20">
-        <v>8.0752590631717407</v>
+        <v>7.8329670841461398</v>
       </c>
       <c r="F20">
-        <v>7.3064611644343698</v>
+        <v>7.1335529897387202</v>
       </c>
       <c r="G20">
-        <v>6.7454582386049804</v>
+        <v>6.5854995011571296</v>
       </c>
       <c r="H20">
-        <v>9.0066199137578593</v>
+        <v>8.7862745393930801</v>
       </c>
       <c r="I20">
-        <v>8.1660253438427599</v>
+        <v>7.9655808788332196</v>
       </c>
       <c r="J20">
-        <v>7.55349853339633</v>
+        <v>7.3677365833480604</v>
       </c>
       <c r="K20">
-        <v>7.8391829376182498</v>
+        <v>7.6923027364690597</v>
       </c>
       <c r="L20">
-        <v>7.0714128081162997</v>
+        <v>6.9391797660825301</v>
       </c>
       <c r="M20">
-        <v>6.5712658362241996</v>
+        <v>6.3809430046255402</v>
       </c>
       <c r="N20">
-        <v>8.0447232091691792</v>
+        <v>7.8103743878015397</v>
       </c>
       <c r="O20">
-        <v>7.2763556244663503</v>
+        <v>7.1054225427231996</v>
       </c>
       <c r="P20">
-        <v>6.715260921844</v>
+        <v>6.55725276697226</v>
       </c>
       <c r="Q20">
-        <v>8.9721680265101806</v>
+        <v>8.75423757872972</v>
       </c>
       <c r="R20">
-        <v>8.1319354099112093</v>
+        <v>7.9337473268897201</v>
       </c>
       <c r="S20">
-        <v>7.5192808999670202</v>
+        <v>7.3357100919547902</v>
       </c>
       <c r="T20">
-        <v>7.8242102758702696</v>
+        <v>7.6782282048564197</v>
       </c>
       <c r="U20">
-        <v>7.0509471505522603</v>
+        <v>6.9195605648089504</v>
       </c>
       <c r="V20">
-        <v>6.5393516677364403</v>
+        <v>6.3569033783508404</v>
       </c>
       <c r="W20">
-        <v>8.0264564355541097</v>
+        <v>7.7971099366001004</v>
       </c>
       <c r="X20">
-        <v>7.2593833238781604</v>
+        <v>7.0329309942561098</v>
       </c>
       <c r="Y20" s="2">
-        <v>6.6991301622380304</v>
+        <v>6.5428474719884004</v>
       </c>
       <c r="Z20">
-        <v>8.9371807824265606</v>
+        <v>8.7217450074137304</v>
       </c>
       <c r="AA20">
-        <v>8.1007758552024001</v>
+        <v>7.9048448384586596</v>
       </c>
       <c r="AB20">
-        <v>7.4906406972389696</v>
+        <v>7.3092012543210201</v>
       </c>
       <c r="AC20">
-        <v>7.2358136795867001</v>
+        <v>7.0956433286787899</v>
       </c>
       <c r="AD20">
-        <v>6.5206037307060098</v>
+        <v>6.3950078600003799</v>
       </c>
       <c r="AE20">
-        <v>6.0436693916003303</v>
+        <v>5.8763017186233997</v>
       </c>
       <c r="AF20">
-        <v>7.3430661014255003</v>
+        <v>7.1937441106753397</v>
       </c>
       <c r="AG20">
-        <v>6.6847640227615797</v>
+        <v>6.4829219360176999</v>
       </c>
       <c r="AH20">
-        <v>6.1600110418243803</v>
+        <v>6.0122868011651001</v>
       </c>
       <c r="AI20">
-        <v>8.2357638573209098</v>
+        <v>8.0311569565000092</v>
       </c>
       <c r="AJ20">
-        <v>7.4513618103057002</v>
+        <v>7.2656718114602796</v>
       </c>
       <c r="AK20">
-        <v>6.8776279901594197</v>
+        <v>6.7059588529903502</v>
       </c>
       <c r="AL20">
-        <v>7.2262286582947999</v>
+        <v>7.0382086903628496</v>
       </c>
       <c r="AM20">
-        <v>6.5067865522293902</v>
+        <v>6.38210703695853</v>
       </c>
       <c r="AN20">
-        <v>5.9736534337383196</v>
+        <v>5.8598318202483002</v>
       </c>
       <c r="AO20">
-        <v>7.3270982507985201</v>
+        <v>7.1791626273410198</v>
       </c>
       <c r="AP20">
-        <v>6.66615358511228</v>
+        <v>6.4692276164428</v>
       </c>
       <c r="AQ20">
-        <v>6.1419461796347798</v>
+        <v>5.9479752550817997</v>
       </c>
       <c r="AR20">
-        <v>8.2108777614218198</v>
+        <v>7.9443665554605003</v>
       </c>
       <c r="AS20">
-        <v>7.4273973542085203</v>
+        <v>7.2438021826822201</v>
       </c>
       <c r="AT20">
-        <v>6.8541271035589304</v>
+        <v>6.6843801722399903</v>
       </c>
       <c r="AU20">
-        <v>7.21293031779014</v>
+        <v>7.0382086903628496</v>
       </c>
       <c r="AV20">
-        <v>6.4947451992842202</v>
+        <v>6.3714839333884496</v>
       </c>
       <c r="AW20">
-        <v>5.9626700020221497</v>
+        <v>5.8501674493785201</v>
       </c>
       <c r="AX20">
-        <v>7.3159756439086001</v>
+        <v>7.16924117895846</v>
       </c>
       <c r="AY20">
-        <v>6.6502995027138203</v>
+        <v>6.4576540080240896</v>
       </c>
       <c r="AZ20">
-        <v>6.1267535435790803</v>
+        <v>5.9370358092304096</v>
       </c>
       <c r="BA20">
-        <v>8.1735171526262391</v>
+        <v>7.9167489256800696</v>
       </c>
       <c r="BB20">
-        <v>7.39262582891413</v>
+        <v>7.2114289516933097</v>
       </c>
       <c r="BC20">
-        <v>6.8210253620920804</v>
+        <v>6.6534992251414398</v>
       </c>
       <c r="BD20">
-        <v>6.7496010999811098</v>
+        <v>6.5836413839881702</v>
       </c>
       <c r="BE20">
-        <v>6.0754871498552596</v>
+        <v>5.9564812921449004</v>
       </c>
       <c r="BF20">
-        <v>5.5751792125612702</v>
+        <v>5.4665776479345798</v>
       </c>
       <c r="BG20">
-        <v>6.8358078596003597</v>
+        <v>6.6943750146056802</v>
       </c>
       <c r="BH20">
-        <v>6.1544959734918301</v>
+        <v>6.0280178332725303</v>
       </c>
       <c r="BI20">
-        <v>5.7118680713135497</v>
+        <v>5.5383004135315996</v>
       </c>
       <c r="BJ20">
-        <v>7.6407590022187604</v>
+        <v>7.40054606347383</v>
       </c>
       <c r="BK20">
-        <v>6.9025091962909597</v>
+        <v>6.7291736744952502</v>
       </c>
       <c r="BL20">
-        <v>6.3614534238083396</v>
+        <v>6.2013679241687401</v>
       </c>
       <c r="BM20">
-        <v>6.7394759561275697</v>
+        <v>6.5836413839881702</v>
       </c>
       <c r="BN20">
-        <v>6.0648075090675704</v>
+        <v>5.9471358160985304</v>
       </c>
       <c r="BO20">
-        <v>5.5654391002451904</v>
+        <v>5.4580452527540402</v>
       </c>
       <c r="BP20">
-        <v>6.8262115017381904</v>
+        <v>6.68595641236959</v>
       </c>
       <c r="BQ20">
-        <v>6.1433528770852801</v>
+        <v>6.0182848738343697</v>
       </c>
       <c r="BR20">
-        <v>5.6994531057474997</v>
+        <v>5.5292535768557398</v>
       </c>
       <c r="BS20">
-        <v>7.6204574566703904</v>
+        <v>7.3854579066351302</v>
       </c>
       <c r="BT20">
-        <v>6.8854196026656602</v>
+        <v>6.7138729730857101</v>
       </c>
       <c r="BU20">
-        <v>6.3456701461693301</v>
+        <v>6.1872061865969599</v>
       </c>
       <c r="BV20">
-        <v>6.7271710639256304</v>
+        <v>6.5836413839881702</v>
       </c>
       <c r="BW20">
-        <v>6.0537285186210603</v>
+        <v>5.9374161131079397</v>
       </c>
       <c r="BX20">
-        <v>5.5553317132126301</v>
+        <v>5.4491982810343096</v>
       </c>
       <c r="BY20">
-        <v>6.8194666586005201</v>
+        <v>6.6808793741337098</v>
       </c>
       <c r="BZ20">
-        <v>6.13512585602935</v>
+        <v>6.0111696422967702</v>
       </c>
       <c r="CA20">
-        <v>5.6854931366586596</v>
+        <v>5.5187093491491401</v>
       </c>
       <c r="CB20">
-        <v>7.59010873961304</v>
+        <v>7.3621979573171501</v>
       </c>
       <c r="CC20">
-        <v>6.8492864051044</v>
+        <v>6.6298173837963299</v>
       </c>
       <c r="CD20">
-        <v>6.3091685152146297</v>
+        <v>6.1530444048004602</v>
       </c>
     </row>
     <row r="21" spans="1:82" x14ac:dyDescent="0.3">
@@ -6187,247 +6194,247 @@
         <v>100</v>
       </c>
       <c r="B21">
-        <v>3.1440095725986601</v>
+        <v>3.08561394515992</v>
       </c>
       <c r="C21">
-        <v>2.8658526938845101</v>
+        <v>2.7856686621130602</v>
       </c>
       <c r="D21">
-        <v>2.64205830345443</v>
+        <v>2.5623074471210101</v>
       </c>
       <c r="E21">
-        <v>3.2301036252686899</v>
+        <v>3.1331868336584501</v>
       </c>
       <c r="F21">
-        <v>2.9225844657737499</v>
+        <v>2.85342119589549</v>
       </c>
       <c r="G21">
-        <v>2.6981832954419902</v>
+        <v>2.63419980046285</v>
       </c>
       <c r="H21">
-        <v>2.5858790826874101</v>
+        <v>2.5226160050852902</v>
       </c>
       <c r="I21">
-        <v>2.3445370546926698</v>
+        <v>2.2869877016310598</v>
       </c>
       <c r="J21">
-        <v>2.1686752683749</v>
+        <v>2.1153413933375802</v>
       </c>
       <c r="K21">
-        <v>3.1356731750472999</v>
+        <v>3.07692109458762</v>
       </c>
       <c r="L21">
-        <v>2.8285651232465199</v>
+        <v>2.77567190643301</v>
       </c>
       <c r="M21">
-        <v>2.6285063344896802</v>
+        <v>2.5523772018502102</v>
       </c>
       <c r="N21">
-        <v>3.2178892836676698</v>
+        <v>3.1241497551206101</v>
       </c>
       <c r="O21">
-        <v>2.9105422497865399</v>
+        <v>2.8421690170892799</v>
       </c>
       <c r="P21">
-        <v>2.6861043687375998</v>
+        <v>2.6229011067889001</v>
       </c>
       <c r="Q21">
-        <v>2.57598764556161</v>
+        <v>2.51341791443136</v>
       </c>
       <c r="R21">
-        <v>2.3347495375188698</v>
+        <v>2.2778480113935902</v>
       </c>
       <c r="S21">
-        <v>2.1588510875622098</v>
+        <v>2.10614630850234</v>
       </c>
       <c r="T21">
-        <v>3.1296841103481001</v>
+        <v>3.0712912819425702</v>
       </c>
       <c r="U21">
-        <v>2.8203788602209001</v>
+        <v>2.7678242259235799</v>
       </c>
       <c r="V21">
-        <v>2.61574066709457</v>
+        <v>2.5427613513403302</v>
       </c>
       <c r="W21">
-        <v>3.2105825742216401</v>
+        <v>3.1188439746400398</v>
       </c>
       <c r="X21">
-        <v>2.9037533295512601</v>
+        <v>2.8131723977024401</v>
       </c>
       <c r="Y21" s="2">
-        <v>2.67965206489521</v>
+        <v>2.61713898879536</v>
       </c>
       <c r="Z21">
-        <v>2.5659425028218199</v>
+        <v>2.5040890139877598</v>
       </c>
       <c r="AA21">
-        <v>2.32580335776233</v>
+        <v>2.2695498550389201</v>
       </c>
       <c r="AB21">
-        <v>2.1506282357190698</v>
+        <v>2.0985353901556301</v>
       </c>
       <c r="AC21">
-        <v>2.89432547183468</v>
+        <v>2.8382573314715098</v>
       </c>
       <c r="AD21">
-        <v>2.6082414922824002</v>
+        <v>2.5580031440001498</v>
       </c>
       <c r="AE21">
-        <v>2.4174677566401299</v>
+        <v>2.35052068744936</v>
       </c>
       <c r="AF21">
-        <v>2.9372264405702002</v>
+        <v>2.8774976442701301</v>
       </c>
       <c r="AG21">
-        <v>2.6739056091046298</v>
+        <v>2.5931687744070802</v>
       </c>
       <c r="AH21">
-        <v>2.4640044167297499</v>
+        <v>2.4049147204660399</v>
       </c>
       <c r="AI21">
-        <v>2.3645595897821599</v>
+        <v>2.30581516511758</v>
       </c>
       <c r="AJ21">
-        <v>2.1393509249094</v>
+        <v>2.0860377076895702</v>
       </c>
       <c r="AK21">
-        <v>1.9746269442426501</v>
+        <v>1.92533923862176</v>
       </c>
       <c r="AL21">
-        <v>2.89049146331792</v>
+        <v>2.8152834761451402</v>
       </c>
       <c r="AM21">
-        <v>2.6027146208917502</v>
+        <v>2.5528428147834101</v>
       </c>
       <c r="AN21">
-        <v>2.3894613734953301</v>
+        <v>2.3439327280993201</v>
       </c>
       <c r="AO21">
-        <v>2.93083930031941</v>
+        <v>2.8716650509364001</v>
       </c>
       <c r="AP21">
-        <v>2.6664614340449102</v>
+        <v>2.5876910465771199</v>
       </c>
       <c r="AQ21">
-        <v>2.4567784718539101</v>
+        <v>2.37919010203272</v>
       </c>
       <c r="AR21">
-        <v>2.3574145747319601</v>
+        <v>2.2808968844778801</v>
       </c>
       <c r="AS21">
-        <v>2.1324705206797301</v>
+        <v>2.0797587466426002</v>
       </c>
       <c r="AT21">
-        <v>1.96787963485614</v>
+        <v>1.91914381128957</v>
       </c>
       <c r="AU21">
-        <v>2.88517212711605</v>
+        <v>2.8152834761451402</v>
       </c>
       <c r="AV21">
-        <v>2.5978980797136799</v>
+        <v>2.5485935733553799</v>
       </c>
       <c r="AW21">
-        <v>2.3850680008088601</v>
+        <v>2.3400669797514002</v>
       </c>
       <c r="AX21">
-        <v>2.92639025756344</v>
+        <v>2.8676964715833799</v>
       </c>
       <c r="AY21">
-        <v>2.6601198010855298</v>
+        <v>2.5830616032096301</v>
       </c>
       <c r="AZ21">
-        <v>2.4507014174316302</v>
+        <v>2.3748143236921599</v>
       </c>
       <c r="BA21">
-        <v>2.3466880182961298</v>
+        <v>2.2729676222411599</v>
       </c>
       <c r="BB21">
-        <v>2.12248731268462</v>
+        <v>2.0704641098471299</v>
       </c>
       <c r="BC21">
-        <v>1.9583758363524499</v>
+        <v>1.91027762220639</v>
       </c>
       <c r="BD21">
-        <v>2.6998404399924398</v>
+        <v>2.6334565535952699</v>
       </c>
       <c r="BE21">
-        <v>2.4301948599420999</v>
+        <v>2.3825925168579598</v>
       </c>
       <c r="BF21">
-        <v>2.2300716850245101</v>
+        <v>2.18663105917383</v>
       </c>
       <c r="BG21">
-        <v>2.7343231438401401</v>
+        <v>2.6777500058422699</v>
       </c>
       <c r="BH21">
-        <v>2.4617983893967299</v>
+        <v>2.4112071333090102</v>
       </c>
       <c r="BI21">
-        <v>2.2847472285254198</v>
+        <v>2.2153201654126402</v>
       </c>
       <c r="BJ21">
-        <v>2.1937285095723902</v>
+        <v>2.1247612810627698</v>
       </c>
       <c r="BK21">
-        <v>1.9817705553979601</v>
+        <v>1.93200441622587</v>
       </c>
       <c r="BL21">
-        <v>1.8264287270509101</v>
+        <v>1.7804667847325499</v>
       </c>
       <c r="BM21">
-        <v>2.6957903824510301</v>
+        <v>2.6334565535952699</v>
       </c>
       <c r="BN21">
-        <v>2.4259230036270201</v>
+        <v>2.3788543264394102</v>
       </c>
       <c r="BO21">
-        <v>2.2261756400980701</v>
+        <v>2.1832181011016099</v>
       </c>
       <c r="BP21">
-        <v>2.7304846006952701</v>
+        <v>2.6743825649478299</v>
       </c>
       <c r="BQ21">
-        <v>2.4573411508341101</v>
+        <v>2.4073139495337399</v>
       </c>
       <c r="BR21">
-        <v>2.2797812422989998</v>
+        <v>2.21170143074229</v>
       </c>
       <c r="BS21">
-        <v>2.1878997588887299</v>
+        <v>2.1204293397197298</v>
       </c>
       <c r="BT21">
-        <v>1.9768639841081299</v>
+        <v>1.92761145148391</v>
       </c>
       <c r="BU21">
-        <v>1.82189721046714</v>
+        <v>1.77640082643609</v>
       </c>
       <c r="BV21">
-        <v>2.6908684255702502</v>
+        <v>2.6334565535952699</v>
       </c>
       <c r="BW21">
-        <v>2.42149140744842</v>
+        <v>2.37496644524317</v>
       </c>
       <c r="BX21">
-        <v>2.2221326852850498</v>
+        <v>2.1796793124137199</v>
       </c>
       <c r="BY21">
-        <v>2.7277866634402099</v>
+        <v>2.6723517496534801</v>
       </c>
       <c r="BZ21">
-        <v>2.4540503424117399</v>
+        <v>2.4044678569186999</v>
       </c>
       <c r="CA21">
-        <v>2.2741972546634601</v>
+        <v>2.2074837396596498</v>
       </c>
       <c r="CB21">
-        <v>2.17918637768951</v>
+        <v>2.1137512055271399</v>
       </c>
       <c r="CC21">
-        <v>1.9664898281362999</v>
+        <v>1.9034783591354301</v>
       </c>
       <c r="CD21">
-        <v>1.8114172740566299</v>
+        <v>1.76659268111401</v>
       </c>
     </row>
     <row r="22" spans="1:82" x14ac:dyDescent="0.3">
@@ -6931,247 +6938,247 @@
         <v>103</v>
       </c>
       <c r="B24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="C24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="D24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="E24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="F24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="G24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="H24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="I24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="J24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="K24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="L24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="M24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="N24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="O24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="P24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="Q24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="R24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="S24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="T24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="U24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="V24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="W24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="X24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="Y24" s="2">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="Z24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AA24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AB24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AC24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AD24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AE24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AF24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AG24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AH24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AI24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AJ24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AK24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AL24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AM24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AN24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AO24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AP24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AQ24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AR24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AS24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AT24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AU24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AV24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AW24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AX24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AY24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="AZ24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BA24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BB24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BC24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BD24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BE24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BF24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BG24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BH24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BI24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BJ24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BK24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BL24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BM24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BN24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BO24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BP24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BQ24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BR24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BS24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BT24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BU24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BV24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BW24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BX24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BY24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="BZ24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="CA24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="CB24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="CC24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="CD24">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
     </row>
     <row r="25" spans="1:82" x14ac:dyDescent="0.3">
@@ -7179,247 +7186,247 @@
         <v>104</v>
       </c>
       <c r="B25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="C25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="D25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="E25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="F25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="G25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="H25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="I25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="J25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="K25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="L25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="M25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="N25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="O25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="P25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="Q25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="R25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="S25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="T25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="U25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="V25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="W25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="X25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="Y25" s="2">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="Z25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AA25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AB25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AC25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AD25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AE25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AF25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AG25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AH25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AI25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AJ25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AK25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AL25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AM25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AN25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AO25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AP25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AQ25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AR25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AS25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AT25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AU25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AV25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AW25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AX25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AY25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="AZ25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BA25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BB25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BC25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BD25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BE25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BF25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BG25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BH25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BI25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BJ25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BK25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BL25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BM25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BN25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BO25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BP25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BQ25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BR25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BS25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BT25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BU25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BV25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BW25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BX25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BY25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="BZ25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="CA25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="CB25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="CC25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="CD25">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
     </row>
     <row r="26" spans="1:82" x14ac:dyDescent="0.3">
@@ -7427,247 +7434,247 @@
         <v>105</v>
       </c>
       <c r="B26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="C26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="D26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="E26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="F26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="G26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="H26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="I26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="J26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="K26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="L26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="M26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="N26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="O26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="P26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="Q26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="R26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="S26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="T26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="U26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="V26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="W26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="X26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="Y26" s="2">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="Z26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AA26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AB26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AC26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AD26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AE26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AF26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AG26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AH26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AI26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AJ26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AK26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AL26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AM26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AN26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AO26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AP26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AQ26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AR26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AS26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AT26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AU26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AV26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AW26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AX26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AY26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="AZ26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BA26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BB26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BC26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BD26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BE26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BF26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BG26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BH26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BI26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BJ26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BK26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BL26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BM26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BN26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BO26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BP26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BQ26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BR26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BS26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BT26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BU26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BV26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BW26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BX26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BY26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="BZ26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="CA26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="CB26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="CC26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="CD26">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
     </row>
     <row r="27" spans="1:82" x14ac:dyDescent="0.3">
@@ -7675,247 +7682,247 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="C27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="D27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="E27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="F27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="G27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="H27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="I27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="J27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="K27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="L27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="M27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="N27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="O27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="P27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="Q27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="R27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="S27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="T27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="U27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="V27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="W27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="X27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="Y27" s="2">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="Z27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AA27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AB27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AC27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AD27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AE27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AF27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AG27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AH27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AI27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AJ27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AK27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AL27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AM27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AN27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AO27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AP27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AQ27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AR27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AS27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AT27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AU27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AV27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AW27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AX27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AY27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="AZ27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BA27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BB27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BC27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BD27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BE27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BF27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BG27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BH27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BI27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BJ27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BK27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BL27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BM27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BN27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BO27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BP27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BQ27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BR27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BS27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BT27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BU27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BV27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BW27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BX27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BY27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="BZ27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="CA27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="CB27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="CC27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="CD27">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.3">
@@ -7923,247 +7930,247 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>28.5281109888328</v>
+        <v>26.3720202667275</v>
       </c>
       <c r="C28">
-        <v>28.560922136142299</v>
+        <v>26.498275330507202</v>
       </c>
       <c r="D28">
-        <v>28.603672145540202</v>
+        <v>26.553151333103902</v>
       </c>
       <c r="E28">
-        <v>28.333325492081801</v>
+        <v>26.298295503689499</v>
       </c>
       <c r="F28">
-        <v>28.404759169446201</v>
+        <v>26.280244283264299</v>
       </c>
       <c r="G28">
-        <v>28.444698602207801</v>
+        <v>26.317672772094699</v>
       </c>
       <c r="H28">
-        <v>28.065962421650401</v>
+        <v>25.935334904906899</v>
       </c>
       <c r="I28">
-        <v>28.1358328979919</v>
+        <v>26.002446007692299</v>
       </c>
       <c r="J28">
-        <v>28.1696263822056</v>
+        <v>26.033238625332199</v>
       </c>
       <c r="K28">
-        <v>28.562921407946</v>
+        <v>26.4062469349536</v>
       </c>
       <c r="L28">
-        <v>28.664619581676</v>
+        <v>26.517484048085201</v>
       </c>
       <c r="M28">
-        <v>28.6294343852319</v>
+        <v>26.569998083424601</v>
       </c>
       <c r="N28">
-        <v>28.364295971310799</v>
+        <v>26.320261618169901</v>
       </c>
       <c r="O28">
-        <v>28.436488707768799</v>
+        <v>26.313268637497298</v>
       </c>
       <c r="P28">
-        <v>28.477755572687201</v>
+        <v>26.352187851918998</v>
       </c>
       <c r="Q28">
-        <v>28.104567646759801</v>
+        <v>25.975244234959199</v>
       </c>
       <c r="R28">
-        <v>28.175593356643699</v>
+        <v>26.043587972176201</v>
       </c>
       <c r="S28">
-        <v>28.211296342884999</v>
+        <v>26.0763506748394</v>
       </c>
       <c r="T28">
-        <v>28.579455790474</v>
+        <v>26.425360955733101</v>
       </c>
       <c r="U28">
-        <v>28.6782759527579</v>
+        <v>26.533665122943901</v>
       </c>
       <c r="V28">
-        <v>28.654140554919302</v>
+        <v>26.5867792000615</v>
       </c>
       <c r="W28">
-        <v>28.3893479852557</v>
+        <v>26.340197733984802</v>
       </c>
       <c r="X28">
-        <v>28.4615784846605</v>
+        <v>26.4267913807012</v>
       </c>
       <c r="Y28" s="2">
-        <v>28.5033512019731</v>
+        <v>26.378734072412101</v>
       </c>
       <c r="Z28">
-        <v>28.143492710590699</v>
+        <v>26.015505193852299</v>
       </c>
       <c r="AA28">
-        <v>28.213646436570102</v>
+        <v>26.082972588487699</v>
       </c>
       <c r="AB28">
-        <v>28.249532855493602</v>
+        <v>26.115897072954201</v>
       </c>
       <c r="AC28">
-        <v>28.878631317717101</v>
+        <v>26.743489451083299</v>
       </c>
       <c r="AD28">
-        <v>28.962472860429202</v>
+        <v>26.829930531665799</v>
       </c>
       <c r="AE28">
-        <v>28.954979058341699</v>
+        <v>26.877503469767898</v>
       </c>
       <c r="AF28">
-        <v>28.840482835575202</v>
+        <v>26.697253022029901</v>
       </c>
       <c r="AG28">
-        <v>28.826139293798601</v>
+        <v>26.764096794800899</v>
       </c>
       <c r="AH28">
-        <v>28.863548076097601</v>
+        <v>26.748769319946</v>
       </c>
       <c r="AI28">
-        <v>28.581286110376698</v>
+        <v>26.4626305067038</v>
       </c>
       <c r="AJ28">
-        <v>28.651479663617401</v>
+        <v>26.5304324037816</v>
       </c>
       <c r="AK28">
-        <v>28.693056827969102</v>
+        <v>26.569826335018199</v>
       </c>
       <c r="AL28">
-        <v>28.894532320848601</v>
+        <v>26.362074736612101</v>
       </c>
       <c r="AM28">
-        <v>28.970710260086001</v>
+        <v>26.840027775259699</v>
       </c>
       <c r="AN28">
-        <v>29.018967635107799</v>
+        <v>26.887551098288501</v>
       </c>
       <c r="AO28">
-        <v>28.851313441623301</v>
+        <v>26.7099112007011</v>
       </c>
       <c r="AP28">
-        <v>28.8423070078594</v>
+        <v>26.7759879499962</v>
       </c>
       <c r="AQ28">
-        <v>28.880173279439401</v>
+        <v>26.824361955948898</v>
       </c>
       <c r="AR28">
-        <v>28.605532721405101</v>
+        <v>26.579390100679699</v>
       </c>
       <c r="AS28">
-        <v>28.675963246425798</v>
+        <v>26.5557260152876</v>
       </c>
       <c r="AT28">
-        <v>28.718243913827301</v>
+        <v>26.5959015489188</v>
       </c>
       <c r="AU28">
-        <v>28.9039284849753</v>
+        <v>26.391675094090299</v>
       </c>
       <c r="AV28">
-        <v>28.979181247082899</v>
+        <v>26.850207075404299</v>
       </c>
       <c r="AW28">
-        <v>29.027287325439701</v>
+        <v>26.8976402746868</v>
       </c>
       <c r="AX28">
-        <v>28.8614431564725</v>
+        <v>26.721928813672299</v>
       </c>
       <c r="AY28">
-        <v>28.857805323676001</v>
+        <v>26.787939996730898</v>
       </c>
       <c r="AZ28">
-        <v>28.896052777923298</v>
+        <v>26.836250647166899</v>
       </c>
       <c r="BA28">
-        <v>28.6349959567521</v>
+        <v>26.598446020896102</v>
       </c>
       <c r="BB28">
-        <v>28.705003327033499</v>
+        <v>26.586017215471099</v>
       </c>
       <c r="BC28">
-        <v>28.747735070273801</v>
+        <v>26.6265605964402</v>
       </c>
       <c r="BD28">
-        <v>29.112345119582798</v>
+        <v>26.5494297591299</v>
       </c>
       <c r="BE28">
-        <v>29.180592910932301</v>
+        <v>27.058635240611601</v>
       </c>
       <c r="BF28">
-        <v>29.224389796828</v>
+        <v>27.101831526737602</v>
       </c>
       <c r="BG28">
-        <v>29.0858944020022</v>
+        <v>26.954947405888401</v>
       </c>
       <c r="BH28">
-        <v>29.145992433462499</v>
+        <v>27.014512704237301</v>
       </c>
       <c r="BI28">
-        <v>29.132181967938799</v>
+        <v>27.0588260281537</v>
       </c>
       <c r="BJ28">
-        <v>28.9250531903904</v>
+        <v>26.872011068621202</v>
       </c>
       <c r="BK28">
-        <v>28.985169943906801</v>
+        <v>26.871602939758301</v>
       </c>
       <c r="BL28">
-        <v>29.022464763215599</v>
+        <v>26.907158610453202</v>
       </c>
       <c r="BM28">
-        <v>29.1213224333477</v>
+        <v>26.711797573404201</v>
       </c>
       <c r="BN28">
-        <v>29.1859613586638</v>
+        <v>27.065525002426401</v>
       </c>
       <c r="BO28">
-        <v>29.2296447361711</v>
+        <v>27.108574903077599</v>
       </c>
       <c r="BP28">
-        <v>29.092658778851</v>
+        <v>26.963250382731299</v>
       </c>
       <c r="BQ28">
-        <v>29.152450835002199</v>
+        <v>27.022579539504601</v>
       </c>
       <c r="BR28">
-        <v>29.1425982742138</v>
+        <v>27.066816041177301</v>
       </c>
       <c r="BS28">
-        <v>28.941600619054199</v>
+        <v>26.882334391310799</v>
       </c>
       <c r="BT28">
-        <v>28.999189713162899</v>
+        <v>26.886305117014501</v>
       </c>
       <c r="BU28">
-        <v>29.036668628971299</v>
+        <v>26.922049334405902</v>
       </c>
       <c r="BV28">
-        <v>29.1274155488586</v>
+        <v>26.7303229991842</v>
       </c>
       <c r="BW28">
-        <v>29.191483104912798</v>
+        <v>27.072556443151299</v>
       </c>
       <c r="BX28">
-        <v>29.2350433919908</v>
+        <v>27.115523928776</v>
       </c>
       <c r="BY28">
-        <v>29.099675651654199</v>
+        <v>26.971765953580299</v>
       </c>
       <c r="BZ28">
-        <v>29.159196839612701</v>
+        <v>27.030879767300799</v>
       </c>
       <c r="CA28">
-        <v>29.153349155901001</v>
+        <v>27.074982976210499</v>
       </c>
       <c r="CB28">
-        <v>28.9598757466125</v>
+        <v>26.893501394468998</v>
       </c>
       <c r="CC28">
-        <v>29.017607027181501</v>
+        <v>26.956271129497502</v>
       </c>
       <c r="CD28">
-        <v>29.055835790486899</v>
+        <v>26.942363192770198</v>
       </c>
     </row>
     <row r="29" spans="1:82" x14ac:dyDescent="0.3">
@@ -8171,247 +8178,247 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>49.075699978511103</v>
+        <v>50.185265377423001</v>
       </c>
       <c r="C29">
-        <v>46.407202466781399</v>
+        <v>45.937970178885301</v>
       </c>
       <c r="D29">
-        <v>43.569297531394902</v>
+        <v>42.811187554127798</v>
       </c>
       <c r="E29">
-        <v>53.585050124473902</v>
+        <v>52.690023344407699</v>
       </c>
       <c r="F29">
-        <v>49.489024355896397</v>
+        <v>49.782115522647302</v>
       </c>
       <c r="G29">
-        <v>46.664966482036398</v>
+        <v>46.933468066287297</v>
       </c>
       <c r="H29">
-        <v>60.578798452330098</v>
+        <v>60.861838818638198</v>
       </c>
       <c r="I29">
-        <v>56.298179472822802</v>
+        <v>56.541490055766197</v>
       </c>
       <c r="J29">
-        <v>53.402855362920903</v>
+        <v>53.626824796668302</v>
       </c>
       <c r="K29">
-        <v>48.626972738328298</v>
+        <v>49.697747696402601</v>
       </c>
       <c r="L29">
-        <v>44.457663537579002</v>
+        <v>45.412207397912802</v>
       </c>
       <c r="M29">
-        <v>42.863623792547997</v>
+        <v>42.288491447660597</v>
       </c>
       <c r="N29">
-        <v>52.921546196025403</v>
+        <v>52.191761069856099</v>
       </c>
       <c r="O29">
-        <v>48.825191260199503</v>
+        <v>49.133684160779701</v>
       </c>
       <c r="P29">
-        <v>45.987545714142698</v>
+        <v>46.271371634516697</v>
       </c>
       <c r="Q29">
-        <v>59.803921626541403</v>
+        <v>60.105907620131099</v>
       </c>
       <c r="R29">
-        <v>55.517503475641902</v>
+        <v>55.777950913745798</v>
       </c>
       <c r="S29">
-        <v>52.602484886823802</v>
+        <v>52.8429225428224</v>
       </c>
       <c r="T29">
-        <v>48.320872804977199</v>
+        <v>49.3896637504781</v>
       </c>
       <c r="U29">
-        <v>44.051758831760502</v>
+        <v>45.000612163724703</v>
       </c>
       <c r="V29">
-        <v>42.2056587524986</v>
+        <v>41.785899376418797</v>
       </c>
       <c r="W29">
-        <v>52.515434996565297</v>
+        <v>51.886956913742999</v>
       </c>
       <c r="X29">
-        <v>48.441547434453497</v>
+        <v>47.440269130005497</v>
       </c>
       <c r="Y29" s="2">
-        <v>45.615902931465797</v>
+        <v>45.920785306150599</v>
       </c>
       <c r="Z29">
-        <v>59.025177324404197</v>
+        <v>59.347017110375901</v>
       </c>
       <c r="AA29">
-        <v>54.807652821986601</v>
+        <v>55.087173199404198</v>
       </c>
       <c r="AB29">
-        <v>51.933233930200402</v>
+        <v>52.192878584778697</v>
       </c>
       <c r="AC29">
-        <v>37.821989723825801</v>
+        <v>38.514245550282098</v>
       </c>
       <c r="AD29">
-        <v>34.498008232273499</v>
+        <v>35.129730155729199</v>
       </c>
       <c r="AE29">
-        <v>32.970478523304998</v>
+        <v>32.649272565075897</v>
       </c>
       <c r="AF29">
-        <v>39.581295003810503</v>
+        <v>40.203515871937199</v>
       </c>
       <c r="AG29">
-        <v>37.345688854585802</v>
+        <v>36.6887071963409</v>
       </c>
       <c r="AH29">
-        <v>35.022160448882403</v>
+        <v>35.137265118879903</v>
       </c>
       <c r="AI29">
-        <v>45.481263465625197</v>
+        <v>45.552223175137499</v>
       </c>
       <c r="AJ29">
-        <v>42.001990643548801</v>
+        <v>42.053122222936103</v>
       </c>
       <c r="AK29">
-        <v>39.575698922722403</v>
+        <v>39.617615774345097</v>
       </c>
       <c r="AL29">
-        <v>37.651138036634499</v>
+        <v>38.130488489066103</v>
       </c>
       <c r="AM29">
-        <v>34.269406740675997</v>
+        <v>34.904400559529599</v>
       </c>
       <c r="AN29">
-        <v>31.767530435026401</v>
+        <v>32.363397900859198</v>
       </c>
       <c r="AO29">
-        <v>39.308859320826798</v>
+        <v>39.940576119769503</v>
       </c>
       <c r="AP29">
-        <v>37.013859581195597</v>
+        <v>36.4404867567794</v>
       </c>
       <c r="AQ29">
-        <v>34.694937797089203</v>
+        <v>33.925751236365002</v>
       </c>
       <c r="AR29">
-        <v>45.0319698495165</v>
+        <v>43.8974422420265</v>
       </c>
       <c r="AS29">
-        <v>41.5624878263216</v>
+        <v>41.634788545142399</v>
       </c>
       <c r="AT29">
-        <v>39.137001445539802</v>
+        <v>39.197887196818101</v>
       </c>
       <c r="AU29">
-        <v>37.4314652207661</v>
+        <v>38.0877071652137</v>
       </c>
       <c r="AV29">
-        <v>34.069528212597497</v>
+        <v>34.7172119919069</v>
       </c>
       <c r="AW29">
-        <v>31.583558266087401</v>
+        <v>32.1914425801181</v>
       </c>
       <c r="AX29">
-        <v>39.116368141099997</v>
+        <v>39.757307818092698</v>
       </c>
       <c r="AY29">
-        <v>36.730638961055</v>
+        <v>36.229067868398197</v>
       </c>
       <c r="AZ29">
-        <v>34.419166479078797</v>
+        <v>33.723944892465198</v>
       </c>
       <c r="BA29">
-        <v>44.374294898127197</v>
+        <v>43.410050539808999</v>
       </c>
       <c r="BB29">
-        <v>40.939978084949701</v>
+        <v>41.032208342863797</v>
       </c>
       <c r="BC29">
-        <v>38.533086136796904</v>
+        <v>38.612561114664302</v>
       </c>
       <c r="BD29">
-        <v>30.451591012889899</v>
+        <v>30.988607706379302</v>
       </c>
       <c r="BE29">
-        <v>27.695542248904399</v>
+        <v>28.146736772152199</v>
       </c>
       <c r="BF29">
-        <v>25.643146620130999</v>
+        <v>26.0670497658203</v>
       </c>
       <c r="BG29">
-        <v>31.6621885065992</v>
+        <v>32.088528362575303</v>
       </c>
       <c r="BH29">
-        <v>28.8243960610369</v>
+        <v>29.2207984025118</v>
       </c>
       <c r="BI29">
-        <v>27.663269077171901</v>
+        <v>27.1497342008579</v>
       </c>
       <c r="BJ29">
-        <v>35.886411413963799</v>
+        <v>35.098567987703902</v>
       </c>
       <c r="BK29">
-        <v>33.002556566500601</v>
+        <v>32.983612724490698</v>
       </c>
       <c r="BL29">
-        <v>30.9611346824571</v>
+        <v>30.937177080811999</v>
       </c>
       <c r="BM29">
-        <v>30.305399884984201</v>
+        <v>30.800189101201902</v>
       </c>
       <c r="BN29">
-        <v>27.544671667865099</v>
+        <v>28.007321038568801</v>
       </c>
       <c r="BO29">
-        <v>25.504388873968299</v>
+        <v>25.938719850749798</v>
       </c>
       <c r="BP29">
-        <v>31.5216903352771</v>
+        <v>31.957766413527001</v>
       </c>
       <c r="BQ29">
-        <v>28.6617541547595</v>
+        <v>29.0707943517057</v>
       </c>
       <c r="BR29">
-        <v>27.473445444965598</v>
+        <v>27.008919606701301</v>
       </c>
       <c r="BS29">
-        <v>35.580742280259201</v>
+        <v>34.870915513900002</v>
       </c>
       <c r="BT29">
-        <v>32.742180213062802</v>
+        <v>32.741198279673903</v>
       </c>
       <c r="BU29">
-        <v>30.716206412071202</v>
+        <v>30.708700309264</v>
       </c>
       <c r="BV29">
-        <v>30.133393807693398</v>
+        <v>30.778836984186299</v>
       </c>
       <c r="BW29">
-        <v>27.388804242848401</v>
+        <v>27.8629762499795</v>
       </c>
       <c r="BX29">
-        <v>25.3609944379673</v>
+        <v>25.806168530291998</v>
       </c>
       <c r="BY29">
-        <v>31.420759636516902</v>
+        <v>31.874945486721799</v>
       </c>
       <c r="BZ29">
-        <v>28.540147648369501</v>
+        <v>28.958904698667499</v>
       </c>
       <c r="CA29">
-        <v>27.261994318900499</v>
+        <v>26.846586411238999</v>
       </c>
       <c r="CB29">
-        <v>35.135112255218303</v>
+        <v>34.528113722923599</v>
       </c>
       <c r="CC29">
-        <v>32.208920334167303</v>
+        <v>31.4448772146572</v>
       </c>
       <c r="CD29">
-        <v>30.169244885742199</v>
+        <v>30.1800349624164</v>
       </c>
     </row>
     <row r="30" spans="1:82" x14ac:dyDescent="0.3">
@@ -8419,247 +8426,247 @@
         <v>109</v>
       </c>
       <c r="B30">
-        <v>29.063920020564499</v>
+        <v>29.609660726591098</v>
       </c>
       <c r="C30">
-        <v>34.426804771434703</v>
+        <v>33.985129219464497</v>
       </c>
       <c r="D30">
-        <v>38.866369660098101</v>
+        <v>38.096968234599601</v>
       </c>
       <c r="E30">
-        <v>31.668419680946801</v>
+        <v>31.050151675793799</v>
       </c>
       <c r="F30">
-        <v>36.6596232512425</v>
+        <v>36.754893281053697</v>
       </c>
       <c r="G30">
-        <v>41.566995436036997</v>
+        <v>41.675146189520902</v>
       </c>
       <c r="H30">
-        <v>34.356866218814801</v>
+        <v>34.385757891372897</v>
       </c>
       <c r="I30">
-        <v>40.022389288710201</v>
+        <v>40.051546930562402</v>
       </c>
       <c r="J30">
-        <v>45.651641759194298</v>
+        <v>45.686822816852001</v>
       </c>
       <c r="K30">
-        <v>28.804841500878499</v>
+        <v>29.329895579365498</v>
       </c>
       <c r="L30">
-        <v>33.011609213814303</v>
+        <v>33.604998504146302</v>
       </c>
       <c r="M30">
-        <v>38.249299465587697</v>
+        <v>37.641593930142299</v>
       </c>
       <c r="N30">
-        <v>31.285884014086999</v>
+        <v>30.764203434657698</v>
       </c>
       <c r="O30">
-        <v>36.179052644142999</v>
+        <v>36.288173945421498</v>
       </c>
       <c r="P30">
-        <v>40.976515154017797</v>
+        <v>41.101161454368302</v>
       </c>
       <c r="Q30">
-        <v>33.929318278334897</v>
+        <v>33.971533119310003</v>
       </c>
       <c r="R30">
-        <v>39.481429185950503</v>
+        <v>39.525840296946697</v>
       </c>
       <c r="S30">
-        <v>44.983816631092701</v>
+        <v>45.036691963514201</v>
       </c>
       <c r="T30">
-        <v>28.627764807675799</v>
+        <v>29.152909199777401</v>
       </c>
       <c r="U30">
-        <v>32.716338559001699</v>
+        <v>33.307351188728099</v>
       </c>
       <c r="V30">
-        <v>37.673678543966197</v>
+        <v>37.203580510247399</v>
       </c>
       <c r="W30">
-        <v>31.051916490548599</v>
+        <v>30.5895473505099</v>
       </c>
       <c r="X30">
-        <v>35.901527946235099</v>
+        <v>35.069487653876898</v>
       </c>
       <c r="Y30" s="2">
-        <v>40.652816656033899</v>
+        <v>40.797592218650799</v>
       </c>
       <c r="Z30">
-        <v>33.4993704632926</v>
+        <v>33.555407650649002</v>
       </c>
       <c r="AA30">
-        <v>38.989356532536803</v>
+        <v>39.050057538712103</v>
       </c>
       <c r="AB30">
-        <v>44.425273331350603</v>
+        <v>44.497497635387603</v>
       </c>
       <c r="AC30">
-        <v>22.518819262267701</v>
+        <v>22.859499374978601</v>
       </c>
       <c r="AD30">
-        <v>25.738520182350499</v>
+        <v>26.1340482436724</v>
       </c>
       <c r="AE30">
-        <v>29.561290743750799</v>
+        <v>29.2079179113707</v>
       </c>
       <c r="AF30">
-        <v>23.546291533196001</v>
+        <v>23.8409262867827</v>
       </c>
       <c r="AG30">
-        <v>27.822171849372399</v>
+        <v>27.270281921184701</v>
       </c>
       <c r="AH30">
-        <v>31.36778946451</v>
+        <v>31.389437709471199</v>
       </c>
       <c r="AI30">
-        <v>25.969304399587401</v>
+        <v>25.928710884962999</v>
       </c>
       <c r="AJ30">
-        <v>30.0531147476093</v>
+        <v>30.002000142769901</v>
       </c>
       <c r="AK30">
-        <v>34.045005473451297</v>
+        <v>33.986876048886799</v>
       </c>
       <c r="AL30">
-        <v>22.4192876072409</v>
+        <v>22.623892800916099</v>
       </c>
       <c r="AM30">
-        <v>25.570953598373102</v>
+        <v>25.969704925685999</v>
       </c>
       <c r="AN30">
-        <v>28.500932764208802</v>
+        <v>28.956759308322301</v>
       </c>
       <c r="AO30">
-        <v>23.3874127585587</v>
+        <v>23.688440674520699</v>
       </c>
       <c r="AP30">
-        <v>27.579643641055</v>
+        <v>27.089529842148199</v>
       </c>
       <c r="AQ30">
-        <v>31.079949541972699</v>
+        <v>30.3282900585668</v>
       </c>
       <c r="AR30">
-        <v>25.718518670435301</v>
+        <v>25.010362125084999</v>
       </c>
       <c r="AS30">
-        <v>29.745210103547201</v>
+        <v>29.7104319689001</v>
       </c>
       <c r="AT30">
-        <v>33.675062561327799</v>
+        <v>33.634641714181598</v>
       </c>
       <c r="AU30">
-        <v>22.290998422917198</v>
+        <v>22.5999466489782</v>
       </c>
       <c r="AV30">
-        <v>25.424450205694299</v>
+        <v>25.833212409780199</v>
       </c>
       <c r="AW30">
-        <v>28.3386251728014</v>
+        <v>28.805794387209399</v>
       </c>
       <c r="AX30">
-        <v>23.275203889890999</v>
+        <v>23.5822429940877</v>
       </c>
       <c r="AY30">
-        <v>27.372640897675002</v>
+        <v>26.9356075046271</v>
       </c>
       <c r="AZ30">
-        <v>30.837367219104902</v>
+        <v>30.151380220632401</v>
       </c>
       <c r="BA30">
-        <v>25.351042624137701</v>
+        <v>24.739005216407399</v>
       </c>
       <c r="BB30">
-        <v>29.3086922477064</v>
+        <v>29.289982583348198</v>
       </c>
       <c r="BC30">
-        <v>33.165366381313</v>
+        <v>33.1429432728264</v>
       </c>
       <c r="BD30">
-        <v>18.200280054422599</v>
+        <v>18.460431114656</v>
       </c>
       <c r="BE30">
-        <v>20.737785122818099</v>
+        <v>21.022588042457102</v>
       </c>
       <c r="BF30">
-        <v>23.082076077454602</v>
+        <v>23.408089016483999</v>
       </c>
       <c r="BG30">
-        <v>18.911690854035601</v>
+        <v>19.113973483260398</v>
       </c>
       <c r="BH30">
-        <v>21.569688378803502</v>
+        <v>21.810708767163899</v>
       </c>
       <c r="BI30">
-        <v>24.872059355109801</v>
+        <v>24.364368676496699</v>
       </c>
       <c r="BJ30">
-        <v>20.588011268425301</v>
+        <v>20.091866253876201</v>
       </c>
       <c r="BK30">
-        <v>23.720271903311598</v>
+        <v>23.6475976522458</v>
       </c>
       <c r="BL30">
-        <v>26.7498763412129</v>
+        <v>26.666206187643901</v>
       </c>
       <c r="BM30">
-        <v>18.114431514556198</v>
+        <v>18.353856648388501</v>
       </c>
       <c r="BN30">
-        <v>20.626554576005901</v>
+        <v>20.9202548568393</v>
       </c>
       <c r="BO30">
-        <v>22.9589816612725</v>
+        <v>23.2947152685365</v>
       </c>
       <c r="BP30">
-        <v>18.829237677259702</v>
+        <v>19.0376194708772</v>
       </c>
       <c r="BQ30">
-        <v>21.449911725232699</v>
+        <v>21.700736826437801</v>
       </c>
       <c r="BR30">
-        <v>24.704042286088999</v>
+        <v>24.240114456430899</v>
       </c>
       <c r="BS30">
-        <v>20.416009780747999</v>
+        <v>19.964171247260701</v>
       </c>
       <c r="BT30">
-        <v>23.5364532865473</v>
+        <v>23.4771997429614</v>
       </c>
       <c r="BU30">
-        <v>26.5418267918735</v>
+        <v>26.472924770436599</v>
       </c>
       <c r="BV30">
-        <v>18.013323994499501</v>
+        <v>18.3417741156969</v>
       </c>
       <c r="BW30">
-        <v>20.5116238457558</v>
+        <v>20.8142860253988</v>
       </c>
       <c r="BX30">
-        <v>22.831757053015998</v>
+        <v>23.177596005095399</v>
       </c>
       <c r="BY30">
-        <v>18.770041836886399</v>
+        <v>18.989330726557</v>
       </c>
       <c r="BZ30">
-        <v>21.360384363292798</v>
+        <v>21.6187535755022</v>
       </c>
       <c r="CA30">
-        <v>24.5168275131043</v>
+        <v>24.096822735814101</v>
       </c>
       <c r="CB30">
-        <v>20.165031103325099</v>
+        <v>19.771720285478501</v>
       </c>
       <c r="CC30">
-        <v>23.159597297250102</v>
+        <v>22.5650339646857</v>
       </c>
       <c r="CD30">
-        <v>26.0767241364459</v>
+        <v>26.0250937913763</v>
       </c>
     </row>
     <row r="31" spans="1:82" x14ac:dyDescent="0.3">
@@ -8667,247 +8674,247 @@
         <v>110</v>
       </c>
       <c r="B31">
-        <v>334204.95927153702</v>
+        <v>321905.46368169499</v>
       </c>
       <c r="C31">
-        <v>347106.631659445</v>
+        <v>327954.88244076702</v>
       </c>
       <c r="D31">
-        <v>354014.64147900598</v>
+        <v>332965.24758789502</v>
       </c>
       <c r="E31">
-        <v>352758.98242741998</v>
+        <v>331908.02762718702</v>
       </c>
       <c r="F31">
-        <v>360985.142041835</v>
+        <v>344101.80417660798</v>
       </c>
       <c r="G31">
-        <v>369214.99285361002</v>
+        <v>351911.82057888899</v>
       </c>
       <c r="H31">
-        <v>370905.451031934</v>
+        <v>352979.17475769902</v>
       </c>
       <c r="I31">
-        <v>381128.130670599</v>
+        <v>362647.310615075</v>
       </c>
       <c r="J31">
-        <v>391315.54660784698</v>
+        <v>372305.099155267</v>
       </c>
       <c r="K31">
-        <v>332435.008074646</v>
+        <v>320094.26210858102</v>
       </c>
       <c r="L31">
-        <v>338132.99249307398</v>
+        <v>325605.283415474</v>
       </c>
       <c r="M31">
-        <v>350392.24509119202</v>
+        <v>330389.42903331202</v>
       </c>
       <c r="N31">
-        <v>350096.17485210102</v>
+        <v>329996.13832072698</v>
       </c>
       <c r="O31">
-        <v>358016.46463658003</v>
+        <v>341393.29355094099</v>
       </c>
       <c r="P31">
-        <v>365916.67101358401</v>
+        <v>348899.43210415897</v>
       </c>
       <c r="Q31">
-        <v>368073.32241687499</v>
+        <v>350409.76646267402</v>
       </c>
       <c r="R31">
-        <v>377952.65357122</v>
+        <v>359754.54376733099</v>
       </c>
       <c r="S31">
-        <v>387778.22849967203</v>
+        <v>369075.42046757397</v>
       </c>
       <c r="T31">
-        <v>331166.33413941698</v>
+        <v>318923.98698391602</v>
       </c>
       <c r="U31">
-        <v>336178.61637783499</v>
+        <v>323766.71308881999</v>
       </c>
       <c r="V31">
-        <v>346997.06282942498</v>
+        <v>327904.69372576301</v>
       </c>
       <c r="W31">
-        <v>348508.08615193301</v>
+        <v>328876.21742679999</v>
       </c>
       <c r="X31">
-        <v>356348.24589516799</v>
+        <v>334462.84441772499</v>
       </c>
       <c r="Y31" s="2">
-        <v>364160.84210492001</v>
+        <v>347368.15712161199</v>
       </c>
       <c r="Z31">
-        <v>365208.29307112098</v>
+        <v>347813.40455391299</v>
       </c>
       <c r="AA31">
-        <v>375061.76159058698</v>
+        <v>357138.160457797</v>
       </c>
       <c r="AB31">
-        <v>384829.83587975497</v>
+        <v>366412.80631537101</v>
       </c>
       <c r="AC31">
-        <v>373535.77798686299</v>
+        <v>359203.87166567403</v>
       </c>
       <c r="AD31">
-        <v>379177.958729017</v>
+        <v>364711.64747178298</v>
       </c>
       <c r="AE31">
-        <v>390885.99645368801</v>
+        <v>369536.11367979198</v>
       </c>
       <c r="AF31">
-        <v>384691.26968640502</v>
+        <v>369204.87417106802</v>
       </c>
       <c r="AG31">
-        <v>398510.37261678802</v>
+        <v>374808.17275655799</v>
       </c>
       <c r="AH31">
-        <v>406080.08875641797</v>
+        <v>386837.07674839301</v>
       </c>
       <c r="AI31">
-        <v>409015.36014685902</v>
+        <v>388944.893220881</v>
       </c>
       <c r="AJ31">
-        <v>418517.057000848</v>
+        <v>397917.842734039</v>
       </c>
       <c r="AK31">
-        <v>427858.79913310602</v>
+        <v>406766.21483461797</v>
       </c>
       <c r="AL31">
-        <v>372546.81470931898</v>
+        <v>353412.36066658102</v>
       </c>
       <c r="AM31">
-        <v>377572.70288508403</v>
+        <v>363241.64628180303</v>
       </c>
       <c r="AN31">
-        <v>381881.62346317997</v>
+        <v>367467.57009539998</v>
       </c>
       <c r="AO31">
-        <v>383020.02940159303</v>
+        <v>367709.658747076</v>
       </c>
       <c r="AP31">
-        <v>396294.54908588302</v>
+        <v>373226.379291941</v>
       </c>
       <c r="AQ31">
-        <v>403701.838351371</v>
+        <v>378605.588550616</v>
       </c>
       <c r="AR31">
-        <v>406547.24256476102</v>
+        <v>380583.88519475202</v>
       </c>
       <c r="AS31">
-        <v>415829.38572320802</v>
+        <v>395525.987232888</v>
       </c>
       <c r="AT31">
-        <v>424939.80379382003</v>
+        <v>404152.61214601999</v>
       </c>
       <c r="AU31">
-        <v>371176.889675666</v>
+        <v>353412.36066658102</v>
       </c>
       <c r="AV31">
-        <v>376176.53618593101</v>
+        <v>362033.41140474402</v>
       </c>
       <c r="AW31">
-        <v>380478.62451094401</v>
+        <v>366256.47242241399</v>
       </c>
       <c r="AX31">
-        <v>381858.05570507899</v>
+        <v>366694.02733914601</v>
       </c>
       <c r="AY31">
-        <v>394411.77963714598</v>
+        <v>371892.15137258399</v>
       </c>
       <c r="AZ31">
-        <v>401707.12550059397</v>
+        <v>377214.21537162102</v>
       </c>
       <c r="BA31">
-        <v>402855.96929141902</v>
+        <v>377942.37691020698</v>
       </c>
       <c r="BB31">
-        <v>411945.07034328498</v>
+        <v>391998.60156672099</v>
       </c>
       <c r="BC31">
-        <v>420845.25430174102</v>
+        <v>400426.97544579301</v>
       </c>
       <c r="BD31">
-        <v>414314.62673663202</v>
+        <v>394190.70997426298</v>
       </c>
       <c r="BE31">
-        <v>419610.43342038599</v>
+        <v>403332.88155358599</v>
       </c>
       <c r="BF31">
-        <v>424016.713356875</v>
+        <v>407658.36046133802</v>
       </c>
       <c r="BG31">
-        <v>424965.57044278103</v>
+        <v>407562.41513092699</v>
       </c>
       <c r="BH31">
-        <v>430595.06557808199</v>
+        <v>413079.00461212499</v>
       </c>
       <c r="BI31">
-        <v>445063.15952518699</v>
+        <v>418425.67929230398</v>
       </c>
       <c r="BJ31">
-        <v>448767.55103483301</v>
+        <v>420994.06723657699</v>
       </c>
       <c r="BK31">
-        <v>457796.47489636502</v>
+        <v>435092.83433128701</v>
       </c>
       <c r="BL31">
-        <v>466608.24224986299</v>
+        <v>443419.40982874099</v>
       </c>
       <c r="BM31">
-        <v>413072.52408280299</v>
+        <v>394190.70997426298</v>
       </c>
       <c r="BN31">
-        <v>418136.52690737799</v>
+        <v>402068.24875110597</v>
       </c>
       <c r="BO31">
-        <v>422536.45142306399</v>
+        <v>406386.783275122</v>
       </c>
       <c r="BP31">
-        <v>423773.24342939898</v>
+        <v>406537.98837413598</v>
       </c>
       <c r="BQ31">
-        <v>429037.23901895201</v>
+        <v>411746.15008758497</v>
       </c>
       <c r="BR31">
-        <v>443130.53823607299</v>
+        <v>417059.79563041299</v>
       </c>
       <c r="BS31">
-        <v>446385.96268356999</v>
+        <v>419279.18045951199</v>
       </c>
       <c r="BT31">
-        <v>455532.40815992001</v>
+        <v>433116.46774846001</v>
       </c>
       <c r="BU31">
-        <v>464295.72941534698</v>
+        <v>441396.49513988302</v>
       </c>
       <c r="BV31">
-        <v>411565.53071126598</v>
+        <v>394190.70997426298</v>
       </c>
       <c r="BW31">
-        <v>416610.24621242302</v>
+        <v>400755.08201900299</v>
       </c>
       <c r="BX31">
-        <v>421003.10919049598</v>
+        <v>405070.42241726298</v>
       </c>
       <c r="BY31">
-        <v>422936.21341780998</v>
+        <v>405920.80659111397</v>
       </c>
       <c r="BZ31">
-        <v>427888.89705362899</v>
+        <v>410773.13620557002</v>
       </c>
       <c r="CA31">
-        <v>440962.43103491201</v>
+        <v>415470.65513307601</v>
       </c>
       <c r="CB31">
-        <v>442837.54969273502</v>
+        <v>416642.36217079603</v>
       </c>
       <c r="CC31">
-        <v>450763.88144851598</v>
+        <v>422339.39017075702</v>
       </c>
       <c r="CD31">
-        <v>458969.63838396402</v>
+        <v>436535.73494523898</v>
       </c>
     </row>
     <row r="32" spans="1:82" x14ac:dyDescent="0.3">
@@ -9659,247 +9666,247 @@
         <v>114</v>
       </c>
       <c r="B35">
-        <v>1.06123072701108E-2</v>
+        <v>9.9202149024565991E-3</v>
       </c>
       <c r="C35">
-        <v>1.0417681213806E-2</v>
+        <v>9.6287708280139196E-3</v>
       </c>
       <c r="D35">
-        <v>1.02264053300457E-2</v>
+        <v>9.4198734778665992E-3</v>
       </c>
       <c r="E35">
-        <v>1.32974803340402E-2</v>
+        <v>1.22293723269708E-2</v>
       </c>
       <c r="F35">
-        <v>1.31380235970285E-2</v>
+        <v>1.21734636204524E-2</v>
       </c>
       <c r="G35">
-        <v>1.30619056019892E-2</v>
+        <v>1.2114384864058299E-2</v>
       </c>
       <c r="H35">
-        <v>1.6639438955290499E-2</v>
+        <v>1.53958633325558E-2</v>
       </c>
       <c r="I35">
-        <v>1.6687743660189502E-2</v>
+        <v>1.5439351451206401E-2</v>
       </c>
       <c r="J35">
-        <v>1.6784937554296001E-2</v>
+        <v>1.5524869500779401E-2</v>
       </c>
       <c r="K35">
-        <v>9.2610410606745706E-3</v>
+        <v>8.7309776780854498E-3</v>
       </c>
       <c r="L35">
-        <v>8.7242186968599107E-3</v>
+        <v>8.2291360036230096E-3</v>
       </c>
       <c r="M35">
-        <v>8.5165363477031093E-3</v>
+        <v>7.8760955665676396E-3</v>
       </c>
       <c r="N35">
-        <v>1.07889473091914E-2</v>
+        <v>9.96284965751007E-3</v>
       </c>
       <c r="O35">
-        <v>1.0455986442693299E-2</v>
+        <v>9.7346806127271094E-3</v>
       </c>
       <c r="P35">
-        <v>1.02620768576046E-2</v>
+        <v>9.5309716785596191E-3</v>
       </c>
       <c r="Q35">
-        <v>1.28537852831001E-2</v>
+        <v>1.1937657510188699E-2</v>
       </c>
       <c r="R35">
-        <v>1.2716849422880599E-2</v>
+        <v>1.17886223392133E-2</v>
       </c>
       <c r="S35">
-        <v>1.26789280826731E-2</v>
+        <v>1.17344286889306E-2</v>
       </c>
       <c r="T35">
-        <v>9.0367076590709503E-3</v>
+        <v>8.5739294354974308E-3</v>
       </c>
       <c r="U35">
-        <v>8.2029782160634897E-3</v>
+        <v>7.7294807591174897E-3</v>
       </c>
       <c r="V35">
-        <v>7.7617876697936199E-3</v>
+        <v>7.2179507721892898E-3</v>
       </c>
       <c r="W35">
-        <v>9.4980159497895702E-3</v>
+        <v>8.8014481257132505E-3</v>
       </c>
       <c r="X35">
-        <v>8.9309748111333492E-3</v>
+        <v>8.2462947820679897E-3</v>
       </c>
       <c r="Y35" s="2">
-        <v>8.5807716228325503E-3</v>
+        <v>7.99201769863115E-3</v>
       </c>
       <c r="Z35">
-        <v>1.0469082947270201E-2</v>
+        <v>9.7062057480503706E-3</v>
       </c>
       <c r="AA35">
-        <v>1.0115188488913599E-2</v>
+        <v>9.4147451809575896E-3</v>
       </c>
       <c r="AB35">
-        <v>9.9335971835087904E-3</v>
+        <v>9.2416935955501496E-3</v>
       </c>
       <c r="AC35">
-        <v>1.0328246352359099E-2</v>
+        <v>9.6433396737908607E-3</v>
       </c>
       <c r="AD35">
-        <v>9.9156979560969093E-3</v>
+        <v>9.2286412796315307E-3</v>
       </c>
       <c r="AE35">
-        <v>9.7254985428031192E-3</v>
+        <v>8.9450884164574002E-3</v>
       </c>
       <c r="AF35">
-        <v>1.24529462809425E-2</v>
+        <v>1.1511783039281199E-2</v>
       </c>
       <c r="AG35">
-        <v>1.23009988321333E-2</v>
+        <v>1.1265589422476401E-2</v>
       </c>
       <c r="AH35">
-        <v>1.2161908252633E-2</v>
+        <v>1.12342816699231E-2</v>
       </c>
       <c r="AI35">
-        <v>1.5399836729236401E-2</v>
+        <v>1.41927344455153E-2</v>
       </c>
       <c r="AJ35">
-        <v>1.53358882123246E-2</v>
+        <v>1.4129369736629101E-2</v>
       </c>
       <c r="AK35">
-        <v>1.53398622241998E-2</v>
+        <v>1.41270883415001E-2</v>
       </c>
       <c r="AL35">
-        <v>9.3392974177054795E-3</v>
+        <v>8.6909860514131198E-3</v>
       </c>
       <c r="AM35">
-        <v>8.7000857445968301E-3</v>
+        <v>8.1685880537665893E-3</v>
       </c>
       <c r="AN35">
-        <v>8.2448807816321596E-3</v>
+        <v>7.7262874305521201E-3</v>
       </c>
       <c r="AO35">
-        <v>1.03595872025653E-2</v>
+        <v>9.6553128636101496E-3</v>
       </c>
       <c r="AP35">
-        <v>1.0026743404833701E-2</v>
+        <v>9.2293629807103893E-3</v>
       </c>
       <c r="AQ35">
-        <v>9.7517993612217906E-3</v>
+        <v>8.9499201675246193E-3</v>
       </c>
       <c r="AR35">
-        <v>1.21148353582415E-2</v>
+        <v>1.10877307015066E-2</v>
       </c>
       <c r="AS35">
-        <v>1.1871808332018599E-2</v>
+        <v>1.09746731557019E-2</v>
       </c>
       <c r="AT35">
-        <v>1.1775315298361601E-2</v>
+        <v>1.0860141773257699E-2</v>
       </c>
       <c r="AU35">
-        <v>9.2567102411368202E-3</v>
+        <v>8.6622723771884198E-3</v>
       </c>
       <c r="AV35">
-        <v>8.2898111349062695E-3</v>
+        <v>7.8373710801896094E-3</v>
       </c>
       <c r="AW35">
-        <v>7.6764237966463304E-3</v>
+        <v>7.23388607774235E-3</v>
       </c>
       <c r="AX35">
-        <v>9.4141346796864592E-3</v>
+        <v>8.8785659093851797E-3</v>
       </c>
       <c r="AY35">
-        <v>8.8577591507105896E-3</v>
+        <v>8.1971068608702406E-3</v>
       </c>
       <c r="AZ35">
-        <v>8.4231775395921006E-3</v>
+        <v>7.7580246084410602E-3</v>
       </c>
       <c r="BA35">
-        <v>1.00817189722945E-2</v>
+        <v>9.3010067801179708E-3</v>
       </c>
       <c r="BB35">
-        <v>9.6658443530628392E-3</v>
+        <v>8.9745252670176308E-3</v>
       </c>
       <c r="BC35">
-        <v>9.4033003861547296E-3</v>
+        <v>8.7292312186354592E-3</v>
       </c>
       <c r="BD35">
-        <v>1.0253043658341199E-2</v>
+        <v>9.4910276909404706E-3</v>
       </c>
       <c r="BE35">
-        <v>9.7252034578598195E-3</v>
+        <v>9.0210599148631207E-3</v>
       </c>
       <c r="BF35">
-        <v>9.3739046122252503E-3</v>
+        <v>8.7185853911624506E-3</v>
       </c>
       <c r="BG35">
-        <v>1.20256979606979E-2</v>
+        <v>1.1149198095236301E-2</v>
       </c>
       <c r="BH35">
-        <v>1.1683615607044799E-2</v>
+        <v>1.08064608512326E-2</v>
       </c>
       <c r="BI35">
-        <v>1.1592049269535601E-2</v>
+        <v>1.0596948743866999E-2</v>
       </c>
       <c r="BJ35">
-        <v>1.4602107198926E-2</v>
+        <v>1.33235119618722E-2</v>
       </c>
       <c r="BK35">
-        <v>1.44515808320389E-2</v>
+        <v>1.32864821587997E-2</v>
       </c>
       <c r="BL35">
-        <v>1.4402939052226201E-2</v>
+        <v>1.32213107305801E-2</v>
       </c>
       <c r="BM35">
-        <v>9.5683031923718496E-3</v>
+        <v>8.9262573721247494E-3</v>
       </c>
       <c r="BN35">
-        <v>8.7565942311048205E-3</v>
+        <v>8.2016206232841202E-3</v>
       </c>
       <c r="BO35">
-        <v>8.2619960531304694E-3</v>
+        <v>7.7352112917675898E-3</v>
       </c>
       <c r="BP35">
-        <v>1.02708295508794E-2</v>
+        <v>9.6036595817486498E-3</v>
       </c>
       <c r="BQ35">
-        <v>9.7473350784960996E-3</v>
+        <v>9.0409513290133393E-3</v>
       </c>
       <c r="BR35">
-        <v>9.4921656602834203E-3</v>
+        <v>8.7120829670609204E-3</v>
       </c>
       <c r="BS35">
-        <v>1.1687286861036201E-2</v>
+        <v>1.0698561853787701E-2</v>
       </c>
       <c r="BT35">
-        <v>1.1366113597813299E-2</v>
+        <v>1.04720969349758E-2</v>
       </c>
       <c r="BU35">
-        <v>1.1186096734877001E-2</v>
+        <v>1.0318552545884801E-2</v>
       </c>
       <c r="BV35">
-        <v>8.31692125302619E-3</v>
+        <v>7.7876793285295001E-3</v>
       </c>
       <c r="BW35">
-        <v>7.4551961099189601E-3</v>
+        <v>7.0164047095845703E-3</v>
       </c>
       <c r="BX35">
-        <v>6.8893420987020297E-3</v>
+        <v>6.4833236479338498E-3</v>
       </c>
       <c r="BY35">
-        <v>9.6722247057445705E-3</v>
+        <v>9.0864792437480302E-3</v>
       </c>
       <c r="BZ35">
-        <v>8.8511875949368306E-3</v>
+        <v>8.2871155821372493E-3</v>
       </c>
       <c r="CA35">
-        <v>8.3842310528870999E-3</v>
+        <v>7.75739657661818E-3</v>
       </c>
       <c r="CB35">
-        <v>1.00034973653531E-2</v>
+        <v>9.2046553352878695E-3</v>
       </c>
       <c r="CC35">
-        <v>9.4673493763831901E-3</v>
+        <v>8.7007068291855699E-3</v>
       </c>
       <c r="CD35">
-        <v>9.1511415715841895E-3</v>
+        <v>8.45178140570387E-3</v>
       </c>
     </row>
     <row r="49" spans="2:82" x14ac:dyDescent="0.3">
